--- a/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.74192960015244</v>
+        <v>18.01159161056425</v>
       </c>
       <c r="C2">
-        <v>18.99614574906574</v>
+        <v>10.15113406351703</v>
       </c>
       <c r="D2">
-        <v>3.420829717766479</v>
+        <v>10.88696443810257</v>
       </c>
       <c r="E2">
-        <v>16.82346394739565</v>
+        <v>7.17702946542183</v>
       </c>
       <c r="F2">
-        <v>40.4884132721883</v>
+        <v>64.59893898294267</v>
       </c>
       <c r="I2">
-        <v>24.65908416653211</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.47216556656721</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>19.76458859801915</v>
+        <v>14.59655443727189</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.202245265697614</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.53351429599304</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.25914423742235</v>
+        <v>16.90843726473418</v>
       </c>
       <c r="C3">
-        <v>17.60323286715072</v>
+        <v>9.505415923050366</v>
       </c>
       <c r="D3">
-        <v>3.45678937832151</v>
+        <v>10.48258773095663</v>
       </c>
       <c r="E3">
-        <v>15.57822545345954</v>
+        <v>7.122425745474695</v>
       </c>
       <c r="F3">
-        <v>38.29481696444855</v>
+        <v>61.10873004858771</v>
       </c>
       <c r="I3">
-        <v>23.72921101078157</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.54992713301628</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>18.36531734917105</v>
+        <v>13.50140428932286</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.137357602825968</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.16720097236951</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.30376102008749</v>
+        <v>16.21958073229523</v>
       </c>
       <c r="C4">
-        <v>16.70844092472027</v>
+        <v>9.095068327166951</v>
       </c>
       <c r="D4">
-        <v>3.478273545537195</v>
+        <v>10.23135733945845</v>
       </c>
       <c r="E4">
-        <v>14.77989546611706</v>
+        <v>7.08964075910098</v>
       </c>
       <c r="F4">
-        <v>36.93620097018703</v>
+        <v>58.91328891590459</v>
       </c>
       <c r="I4">
-        <v>23.16949009383395</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10.95938442743009</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>17.46467819354666</v>
+        <v>12.79940632936297</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.101030785516501</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>10.94949599625763</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.90289455672865</v>
+        <v>15.93617465246291</v>
       </c>
       <c r="C5">
-        <v>16.33361201890392</v>
+        <v>8.924237696942525</v>
       </c>
       <c r="D5">
-        <v>3.486899697023582</v>
+        <v>10.12824072919003</v>
       </c>
       <c r="E5">
-        <v>14.44582575793288</v>
+        <v>7.076433995659507</v>
       </c>
       <c r="F5">
-        <v>36.37991445701382</v>
+        <v>58.00575893096098</v>
       </c>
       <c r="I5">
-        <v>22.94424123605285</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.71353092698499</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>17.08699924988292</v>
+        <v>12.50569311968476</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.087084664518955</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10.86263055426042</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.83562737911817</v>
+        <v>15.88896045062658</v>
       </c>
       <c r="C6">
-        <v>16.27074934040477</v>
+        <v>8.895650204242765</v>
       </c>
       <c r="D6">
-        <v>3.488324851849153</v>
+        <v>10.1110740294973</v>
       </c>
       <c r="E6">
-        <v>14.38981852639413</v>
+        <v>7.074249380610835</v>
       </c>
       <c r="F6">
-        <v>36.28739600546309</v>
+        <v>57.85429998620124</v>
       </c>
       <c r="I6">
-        <v>22.90701159317643</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10.68062334895185</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17.02363566709808</v>
+        <v>12.45645495871599</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.084819950428048</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10.84831965247758</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.29840182177389</v>
+        <v>16.21576918070635</v>
       </c>
       <c r="C7">
-        <v>16.70342744270044</v>
+        <v>9.092779209415921</v>
       </c>
       <c r="D7">
-        <v>3.478390376413486</v>
+        <v>10.22996964921766</v>
       </c>
       <c r="E7">
-        <v>14.77542581288499</v>
+        <v>7.089462068411992</v>
       </c>
       <c r="F7">
-        <v>36.9287088644942</v>
+        <v>58.90110119869883</v>
       </c>
       <c r="I7">
-        <v>23.16644075513</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10.95607966983982</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>17.45962814092814</v>
+        <v>12.79547641714905</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.10083926599906</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10.94831694833165</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.23984488887126</v>
+        <v>17.63370848220739</v>
       </c>
       <c r="C8">
-        <v>18.52391641764888</v>
+        <v>9.931289219121739</v>
       </c>
       <c r="D8">
-        <v>3.433365399384783</v>
+        <v>10.74814190045273</v>
       </c>
       <c r="E8">
-        <v>16.40094790058733</v>
+        <v>7.1580270230301</v>
       </c>
       <c r="F8">
-        <v>39.73463894299253</v>
+        <v>63.406526985501</v>
       </c>
       <c r="I8">
-        <v>24.33613524959176</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12.15909263966699</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>19.29058411617256</v>
+        <v>14.22495252856088</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.179126300019419</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.40573178699846</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.70220132092351</v>
+        <v>20.6234270925342</v>
       </c>
       <c r="C9">
-        <v>21.7929065210713</v>
+        <v>11.47234858069338</v>
       </c>
       <c r="D9">
-        <v>3.339276098211512</v>
+        <v>11.74179778412238</v>
       </c>
       <c r="E9">
-        <v>19.3337969365755</v>
+        <v>7.300077752933083</v>
       </c>
       <c r="F9">
-        <v>45.13842786437028</v>
+        <v>71.82236653389992</v>
       </c>
       <c r="I9">
-        <v>26.72036117189671</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>14.33554942098942</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>22.56352440118064</v>
+        <v>16.80411557293188</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.361810138849708</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.35901820796686</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.05431839614526</v>
+        <v>22.7734589981615</v>
       </c>
       <c r="C10">
-        <v>24.03138515346178</v>
+        <v>12.55332705749563</v>
       </c>
       <c r="D10">
-        <v>3.264875472853449</v>
+        <v>12.46090027341276</v>
       </c>
       <c r="E10">
-        <v>21.35389606103312</v>
+        <v>7.411851442018867</v>
       </c>
       <c r="F10">
-        <v>49.0540172453208</v>
+        <v>77.76154819732652</v>
       </c>
       <c r="I10">
-        <v>28.53361598123335</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>15.83924822234723</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>24.7928388993156</v>
+        <v>18.57942712066712</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.515791161366365</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13.38890235636211</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.08757776748981</v>
+        <v>23.72816405126563</v>
       </c>
       <c r="C11">
-        <v>25.01965397389096</v>
+        <v>13.03729047389631</v>
       </c>
       <c r="D11">
-        <v>3.229409802110552</v>
+        <v>12.7867781579876</v>
       </c>
       <c r="E11">
-        <v>22.24916406477838</v>
+        <v>7.465070288029775</v>
       </c>
       <c r="F11">
-        <v>50.8285941424185</v>
+        <v>80.41766989927636</v>
       </c>
       <c r="I11">
-        <v>29.37486363895829</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>16.50689448977413</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>25.77375892195138</v>
+        <v>19.36562762749351</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.59065458331934</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.93732891107134</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.47404015159524</v>
+        <v>24.08679604612846</v>
       </c>
       <c r="C12">
-        <v>25.39010236173738</v>
+        <v>13.21977886016756</v>
       </c>
       <c r="D12">
-        <v>3.215698795488443</v>
+        <v>12.91013376109477</v>
       </c>
       <c r="E12">
-        <v>22.58532456107863</v>
+        <v>7.485641781077408</v>
       </c>
       <c r="F12">
-        <v>51.50033505384361</v>
+        <v>81.41783978363117</v>
       </c>
       <c r="I12">
-        <v>29.69616097169494</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>16.7577859383369</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>26.1409085178485</v>
+        <v>19.660716299465</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.619748332586949</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.14285380631403</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.39101419360496</v>
+        <v>24.00967848320265</v>
       </c>
       <c r="C13">
-        <v>25.31047872277986</v>
+        <v>13.18050520443144</v>
       </c>
       <c r="D13">
-        <v>3.218665056266426</v>
+        <v>12.88356651889348</v>
       </c>
       <c r="E13">
-        <v>22.51304374901693</v>
+        <v>7.481191331209438</v>
       </c>
       <c r="F13">
-        <v>51.35566099088271</v>
+        <v>81.2026686671126</v>
       </c>
       <c r="I13">
-        <v>29.62683478959268</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>16.70383031049091</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>26.06201934383566</v>
+        <v>19.59727261610707</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.613448425207073</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.09868109980872</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.11946570220083</v>
+        <v>23.75772390994251</v>
       </c>
       <c r="C14">
-        <v>25.05020353987711</v>
+        <v>13.05231731522421</v>
       </c>
       <c r="D14">
-        <v>3.228287724684499</v>
+        <v>12.79692675455113</v>
       </c>
       <c r="E14">
-        <v>22.27687399483642</v>
+        <v>7.466753830841381</v>
       </c>
       <c r="F14">
-        <v>50.88385882029615</v>
+        <v>80.50006133567794</v>
       </c>
       <c r="I14">
-        <v>29.40123952329833</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>16.52757149197537</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>25.80404781375086</v>
+        <v>19.38995458884512</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.593032888690995</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.95427893093931</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.9525232014857</v>
+        <v>23.60303302644078</v>
       </c>
       <c r="C15">
-        <v>24.8903014640725</v>
+        <v>12.97370840935272</v>
       </c>
       <c r="D15">
-        <v>3.234143734224793</v>
+        <v>12.74385579761428</v>
       </c>
       <c r="E15">
-        <v>22.1318588605413</v>
+        <v>7.457967513309269</v>
       </c>
       <c r="F15">
-        <v>50.59485855307343</v>
+        <v>80.06899098152732</v>
       </c>
       <c r="I15">
-        <v>29.26342550591913</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>16.41937019896315</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>25.64548765440416</v>
+        <v>19.26263860573646</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.58062645685624</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.86555725172562</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.98609199364732</v>
+        <v>22.71063431434848</v>
       </c>
       <c r="C16">
-        <v>23.96623862927716</v>
+        <v>12.52157006744059</v>
       </c>
       <c r="D16">
-        <v>3.267156723580131</v>
+        <v>12.4395887531927</v>
       </c>
       <c r="E16">
-        <v>21.29495634238025</v>
+        <v>7.408427515542678</v>
       </c>
       <c r="F16">
-        <v>48.9379652555541</v>
+        <v>77.58711792900019</v>
       </c>
       <c r="I16">
-        <v>28.4789977759486</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>15.79532085537829</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>24.72810389177857</v>
+        <v>18.52765318526366</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.510999816780296</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13.35274389041702</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.38412326082749</v>
+        <v>22.15749535940171</v>
       </c>
       <c r="C17">
-        <v>23.3920164735708</v>
+        <v>12.24242852102516</v>
       </c>
       <c r="D17">
-        <v>3.286962548832018</v>
+        <v>12.25269415397695</v>
       </c>
       <c r="E17">
-        <v>20.77583921803572</v>
+        <v>7.378694862999081</v>
       </c>
       <c r="F17">
-        <v>47.92023690794966</v>
+        <v>76.0534436863837</v>
       </c>
       <c r="I17">
-        <v>28.00220528577227</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>15.40856899442088</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>24.15712643374946</v>
+        <v>18.07157981365189</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.469553948040113</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.03400156457836</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.03439744187772</v>
+        <v>21.83711296945583</v>
       </c>
       <c r="C18">
-        <v>23.05887654440885</v>
+        <v>12.08111770833886</v>
       </c>
       <c r="D18">
-        <v>3.298205122969796</v>
+        <v>12.14507015074279</v>
       </c>
       <c r="E18">
-        <v>20.47498976894207</v>
+        <v>7.36181135279075</v>
       </c>
       <c r="F18">
-        <v>47.3341850097284</v>
+        <v>75.16694756184921</v>
       </c>
       <c r="I18">
-        <v>27.72947999134144</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>15.1845472147044</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>23.82555757924727</v>
+        <v>17.80721367958057</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.446165160223381</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12.84905722303702</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.91537379246351</v>
+        <v>21.72824113423726</v>
       </c>
       <c r="C19">
-        <v>22.94557466029932</v>
+        <v>12.02636142127072</v>
       </c>
       <c r="D19">
-        <v>3.301987365051985</v>
+        <v>12.1086052472967</v>
       </c>
       <c r="E19">
-        <v>20.37272271753318</v>
+        <v>7.356130174989595</v>
       </c>
       <c r="F19">
-        <v>47.13562340194927</v>
+        <v>74.86602174822575</v>
       </c>
       <c r="I19">
-        <v>27.63739023876025</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>15.10841540414115</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>23.71273853943006</v>
+        <v>17.71734014853724</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.438321932406368</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.78615347494203</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.44856180879425</v>
+        <v>22.21660583873944</v>
       </c>
       <c r="C20">
-        <v>23.45343609567177</v>
+        <v>12.2722195876767</v>
       </c>
       <c r="D20">
-        <v>3.284869948480554</v>
+        <v>12.27260172770386</v>
       </c>
       <c r="E20">
-        <v>20.83133107075852</v>
+        <v>7.381836882877758</v>
       </c>
       <c r="F20">
-        <v>48.02864204627476</v>
+        <v>76.21715217923257</v>
       </c>
       <c r="I20">
-        <v>28.05280171109403</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>15.4498992640928</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>24.21823159174261</v>
+        <v>18.12033821300664</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.473919034053662</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.06809718477781</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.1993525019796</v>
+        <v>23.83180342670052</v>
       </c>
       <c r="C21">
-        <v>25.12675079566711</v>
+        <v>13.08998728593077</v>
       </c>
       <c r="D21">
-        <v>3.225469362650745</v>
+        <v>12.82237499697114</v>
       </c>
       <c r="E21">
-        <v>22.34631550587908</v>
+        <v>7.470982422468586</v>
       </c>
       <c r="F21">
-        <v>51.02243857024668</v>
+        <v>80.70657860780818</v>
       </c>
       <c r="I21">
-        <v>29.46742443777796</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>16.5793916444743</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>25.87993296105113</v>
+        <v>19.45091630293121</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.599008756383334</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13.99674929471063</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.31583261095906</v>
+        <v>24.8708497291056</v>
       </c>
       <c r="C22">
-        <v>26.19859623135087</v>
+        <v>13.62011808862952</v>
       </c>
       <c r="D22">
-        <v>3.184981347445451</v>
+        <v>13.18149794366656</v>
       </c>
       <c r="E22">
-        <v>23.32011359077533</v>
+        <v>7.531731595854938</v>
       </c>
       <c r="F22">
-        <v>53.02615677698864</v>
+        <v>83.60841312409171</v>
       </c>
       <c r="I22">
-        <v>30.40817749305623</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>17.30657526002273</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>26.94114456767568</v>
+        <v>20.30547165298879</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.685133803491819</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.59129691891319</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.72231018779956</v>
+        <v>24.31762792900535</v>
       </c>
       <c r="C23">
-        <v>25.6283239426693</v>
+        <v>13.33744316046067</v>
       </c>
       <c r="D23">
-        <v>3.206761209315717</v>
+        <v>12.98979042746817</v>
       </c>
       <c r="E23">
-        <v>22.80166666158739</v>
+        <v>7.499051463383398</v>
       </c>
       <c r="F23">
-        <v>51.93411389904373</v>
+        <v>82.06222065707898</v>
       </c>
       <c r="I23">
-        <v>29.90443637871934</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>16.91930974369448</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>26.37684892204831</v>
+        <v>19.85058808557604</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.638747413718001</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.2750031472141</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.41944053213677</v>
+        <v>22.1898894236698</v>
       </c>
       <c r="C24">
-        <v>23.42567770478345</v>
+        <v>12.25875365214663</v>
       </c>
       <c r="D24">
-        <v>3.285816458330595</v>
+        <v>12.26360207059621</v>
       </c>
       <c r="E24">
-        <v>20.80625072593852</v>
+        <v>7.380415726621241</v>
       </c>
       <c r="F24">
-        <v>47.97963508047617</v>
+        <v>76.14315448116973</v>
       </c>
       <c r="I24">
-        <v>28.02992276744672</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>15.43121909105894</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>24.19061628266916</v>
+        <v>18.09830131217539</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.471944215084966</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.05268785542224</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.80067589239476</v>
+        <v>19.80836506399303</v>
       </c>
       <c r="C25">
-        <v>20.93884968641298</v>
+        <v>11.06542548646327</v>
       </c>
       <c r="D25">
-        <v>3.365514419246407</v>
+        <v>11.47519197656038</v>
       </c>
       <c r="E25">
-        <v>18.56569254268689</v>
+        <v>7.260574456251398</v>
       </c>
       <c r="F25">
-        <v>43.68720905245375</v>
+        <v>69.59014561077016</v>
       </c>
       <c r="I25">
-        <v>26.06526446859966</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>13.76479067849678</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>21.7103545427645</v>
+        <v>16.12875363412216</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.309075821910176</v>
       </c>
       <c r="M25">
+        <v>12.09515603845951</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.01159161056425</v>
+        <v>25.36842808081741</v>
       </c>
       <c r="C2">
-        <v>10.15113406351703</v>
+        <v>19.65664177576702</v>
       </c>
       <c r="D2">
-        <v>10.88696443810257</v>
+        <v>3.819341078263467</v>
       </c>
       <c r="E2">
-        <v>7.17702946542183</v>
+        <v>30.1415806845092</v>
       </c>
       <c r="F2">
-        <v>64.59893898294267</v>
+        <v>16.32844048507718</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>8.21366000391739</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.59655443727189</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.202245265697614</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.53351429599304</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.97460522680993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.90843726473418</v>
+        <v>23.72218028133327</v>
       </c>
       <c r="C3">
-        <v>9.505415923050366</v>
+        <v>18.4239640285501</v>
       </c>
       <c r="D3">
-        <v>10.48258773095663</v>
+        <v>3.672593532825415</v>
       </c>
       <c r="E3">
-        <v>7.122425745474695</v>
+        <v>27.93574351891154</v>
       </c>
       <c r="F3">
-        <v>61.10873004858771</v>
+        <v>15.64597745715749</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.612478628125363</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.50140428932286</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.137357602825968</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.16720097236951</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.71816738688647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.21958073229523</v>
+        <v>22.65380423190686</v>
       </c>
       <c r="C4">
-        <v>9.095068327166951</v>
+        <v>17.62588665225236</v>
       </c>
       <c r="D4">
-        <v>10.23135733945845</v>
+        <v>3.579499160473567</v>
       </c>
       <c r="E4">
-        <v>7.08964075910098</v>
+        <v>26.51891907388413</v>
       </c>
       <c r="F4">
-        <v>58.91328891590459</v>
+        <v>15.24423381952355</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.874641537310564</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.79940632936297</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.101030785516501</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.94949599625763</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.58523953072986</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.93617465246291</v>
+        <v>22.20390660534271</v>
       </c>
       <c r="C5">
-        <v>8.924237696942525</v>
+        <v>17.29030787781309</v>
       </c>
       <c r="D5">
-        <v>10.12824072919003</v>
+        <v>3.540846972788435</v>
       </c>
       <c r="E5">
-        <v>7.076433995659507</v>
+        <v>25.92547915183348</v>
       </c>
       <c r="F5">
-        <v>58.00575893096098</v>
+        <v>15.08504396092518</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8.985420420042932</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.50569311968476</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.087084664518955</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.86263055426042</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.53703679180471</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.88896045062658</v>
+        <v>22.12832306201501</v>
       </c>
       <c r="C6">
-        <v>8.895650204242765</v>
+        <v>17.23396046889813</v>
       </c>
       <c r="D6">
-        <v>10.1110740294973</v>
+        <v>3.534386769038521</v>
       </c>
       <c r="E6">
-        <v>7.074249380610835</v>
+        <v>25.82595772713947</v>
       </c>
       <c r="F6">
-        <v>57.85429998620124</v>
+        <v>15.0588888864425</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>9.004043220822266</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.45645495871599</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.084819950428048</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.84831965247758</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.52938653887453</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.21576918070635</v>
+        <v>22.64779562081482</v>
       </c>
       <c r="C7">
-        <v>9.092779209415921</v>
+        <v>17.62140282418608</v>
       </c>
       <c r="D7">
-        <v>10.22996964921766</v>
+        <v>3.57898072817291</v>
       </c>
       <c r="E7">
-        <v>7.089462068411992</v>
+        <v>26.51098128820306</v>
       </c>
       <c r="F7">
-        <v>58.90110119869883</v>
+        <v>15.24206838253332</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.876120038075975</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.79547641714905</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.10083926599906</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.94831694833165</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.58456558603678</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.63370848220739</v>
+        <v>24.81271655364124</v>
       </c>
       <c r="C8">
-        <v>9.931289219121739</v>
+        <v>19.24016388192344</v>
       </c>
       <c r="D8">
-        <v>10.74814190045273</v>
+        <v>3.769383538143668</v>
       </c>
       <c r="E8">
-        <v>7.1580270230301</v>
+        <v>29.39373235565155</v>
       </c>
       <c r="F8">
-        <v>63.406526985501</v>
+        <v>16.08964379093913</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>8.34731655356949</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.22495252856088</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.179126300019419</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.40573178699846</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.88098568475872</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.6234270925342</v>
+        <v>28.60437642086448</v>
       </c>
       <c r="C9">
-        <v>11.47234858069338</v>
+        <v>22.08848103562995</v>
       </c>
       <c r="D9">
-        <v>11.74179778412238</v>
+        <v>4.117699764941748</v>
       </c>
       <c r="E9">
-        <v>7.300077752933083</v>
+        <v>34.56982071966006</v>
       </c>
       <c r="F9">
-        <v>71.82236653389992</v>
+        <v>17.88159775875261</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>7.470725312844523</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.80411557293188</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.361810138849708</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.35901820796686</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.66397080599586</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.7734589981615</v>
+        <v>31.118861071578</v>
       </c>
       <c r="C10">
-        <v>12.55332705749563</v>
+        <v>23.9850595544914</v>
       </c>
       <c r="D10">
-        <v>12.46090027341276</v>
+        <v>4.356911236975112</v>
       </c>
       <c r="E10">
-        <v>7.411851442018867</v>
+        <v>38.11026944356014</v>
       </c>
       <c r="F10">
-        <v>77.76154819732652</v>
+        <v>19.33673560278329</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.966493971700966</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.57942712066712</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.515791161366365</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>13.38890235636211</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.36966556095143</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.72816405126563</v>
+        <v>32.20530882325553</v>
       </c>
       <c r="C11">
-        <v>13.03729047389631</v>
+        <v>24.80622497516969</v>
       </c>
       <c r="D11">
-        <v>12.7867781579876</v>
+        <v>4.461906843458316</v>
       </c>
       <c r="E11">
-        <v>7.465070288029775</v>
+        <v>39.67114513587598</v>
       </c>
       <c r="F11">
-        <v>80.41766989927636</v>
+        <v>20.13313956232877</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.780080233566886</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.36562762749351</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.59065458331934</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>13.93732891107134</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.93858750703579</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.08679604612846</v>
+        <v>32.60859850803309</v>
       </c>
       <c r="C12">
-        <v>13.21977886016756</v>
+        <v>25.11129447878968</v>
       </c>
       <c r="D12">
-        <v>12.91013376109477</v>
+        <v>4.501105100011032</v>
       </c>
       <c r="E12">
-        <v>7.485641781077408</v>
+        <v>40.25575233027769</v>
       </c>
       <c r="F12">
-        <v>81.41783978363117</v>
+        <v>20.43380502746916</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.71698819706217</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.660716299465</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.619748332586949</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.14285380631403</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.16518547576264</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.00967848320265</v>
+        <v>32.52210196782756</v>
       </c>
       <c r="C13">
-        <v>13.18050520443144</v>
+        <v>25.04585250470146</v>
       </c>
       <c r="D13">
-        <v>12.88356651889348</v>
+        <v>4.492688157825421</v>
       </c>
       <c r="E13">
-        <v>7.481191331209438</v>
+        <v>40.13012227721013</v>
       </c>
       <c r="F13">
-        <v>81.2026686671126</v>
+        <v>20.3690902498894</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.730219438835623</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.59727261610707</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.613448425207073</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.09868109980872</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.11639571760482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.75772390994251</v>
+        <v>32.23864973756596</v>
       </c>
       <c r="C14">
-        <v>13.05231731522421</v>
+        <v>24.83144063581798</v>
       </c>
       <c r="D14">
-        <v>12.79692675455113</v>
+        <v>4.465143008308939</v>
       </c>
       <c r="E14">
-        <v>7.466753830841381</v>
+        <v>39.71936640373213</v>
       </c>
       <c r="F14">
-        <v>80.50006133567794</v>
+        <v>20.15789320706244</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.774731018517394</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.38995458884512</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.593032888690995</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>13.95427893093931</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.95723552658335</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.60303302644078</v>
+        <v>32.06397312534779</v>
       </c>
       <c r="C15">
-        <v>12.97370840935272</v>
+        <v>24.69934344448685</v>
       </c>
       <c r="D15">
-        <v>12.74385579761428</v>
+        <v>4.44819743908746</v>
       </c>
       <c r="E15">
-        <v>7.457967513309269</v>
+        <v>39.46694677142762</v>
       </c>
       <c r="F15">
-        <v>80.06899098152732</v>
+        <v>20.02841288101449</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.803014989716942</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.26263860573646</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.58062645685624</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13.86555725172562</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.85970754252524</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.71063431434848</v>
+        <v>31.04671483225414</v>
       </c>
       <c r="C16">
-        <v>12.52157006744059</v>
+        <v>23.93056504312088</v>
       </c>
       <c r="D16">
-        <v>12.4395887531927</v>
+        <v>4.349971515276239</v>
       </c>
       <c r="E16">
-        <v>7.408427515542678</v>
+        <v>38.00731900398095</v>
       </c>
       <c r="F16">
-        <v>77.58711792900019</v>
+        <v>19.28455536651099</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.979649156333748</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.52765318526366</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.510999816780296</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>13.35274389041702</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.34735942988158</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.15749535940171</v>
+        <v>30.40804529604071</v>
       </c>
       <c r="C17">
-        <v>12.24242852102516</v>
+        <v>23.44835168756838</v>
       </c>
       <c r="D17">
-        <v>12.25269415397695</v>
+        <v>4.288724382213379</v>
       </c>
       <c r="E17">
-        <v>7.378694862999081</v>
+        <v>37.099616158155</v>
       </c>
       <c r="F17">
-        <v>76.0534436863837</v>
+        <v>18.86157768798241</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>7.099884904373615</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.07157981365189</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.469553948040113</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.03400156457836</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.15517980586473</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.83711296945583</v>
+        <v>30.03528767895412</v>
       </c>
       <c r="C18">
-        <v>12.08111770833886</v>
+        <v>23.16707333101833</v>
       </c>
       <c r="D18">
-        <v>12.14507015074279</v>
+        <v>4.253137241660188</v>
       </c>
       <c r="E18">
-        <v>7.36181135279075</v>
+        <v>36.57280651848927</v>
       </c>
       <c r="F18">
-        <v>75.16694756184921</v>
+        <v>18.65262112324666</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>7.17299277730334</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.80721367958057</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.446165160223381</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.84905722303702</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.04741300427686</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.72824113423726</v>
+        <v>29.90814514650155</v>
       </c>
       <c r="C19">
-        <v>12.02636142127072</v>
+        <v>23.07116112139966</v>
       </c>
       <c r="D19">
-        <v>12.1086052472967</v>
+        <v>4.241026740118365</v>
       </c>
       <c r="E19">
-        <v>7.356130174989595</v>
+        <v>36.39360725039573</v>
       </c>
       <c r="F19">
-        <v>74.86602174822575</v>
+        <v>18.58210645715513</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>7.198387760244956</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.71734014853724</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.438321932406368</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.78615347494203</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.01139838796331</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.21660583873944</v>
+        <v>30.47659196200954</v>
       </c>
       <c r="C20">
-        <v>12.2722195876767</v>
+        <v>23.50008940701647</v>
       </c>
       <c r="D20">
-        <v>12.27260172770386</v>
+        <v>4.295281538780513</v>
       </c>
       <c r="E20">
-        <v>7.381836882877758</v>
+        <v>37.19672681716239</v>
       </c>
       <c r="F20">
-        <v>76.21715217923257</v>
+        <v>18.90036176098988</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>7.086667753671041</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.12033821300664</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.473919034053662</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.06809718477781</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.17535043213537</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.83180342670052</v>
+        <v>32.32212591483506</v>
       </c>
       <c r="C21">
-        <v>13.08998728593077</v>
+        <v>24.89457756921891</v>
       </c>
       <c r="D21">
-        <v>12.82237499697114</v>
+        <v>4.473248991414881</v>
       </c>
       <c r="E21">
-        <v>7.470982422468586</v>
+        <v>39.84018485614851</v>
       </c>
       <c r="F21">
-        <v>80.70657860780818</v>
+        <v>20.21995086435572</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.761441811255624</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.45091630293121</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.599008756383334</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>13.99674929471063</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.00399238359894</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.8708497291056</v>
+        <v>33.48100437929637</v>
       </c>
       <c r="C22">
-        <v>13.62011808862952</v>
+        <v>25.77169178005646</v>
       </c>
       <c r="D22">
-        <v>13.18149794366656</v>
+        <v>4.586286890941021</v>
       </c>
       <c r="E22">
-        <v>7.531731595854938</v>
+        <v>41.53055470648981</v>
       </c>
       <c r="F22">
-        <v>83.60841312409171</v>
+        <v>21.09348430057691</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.593352635393266</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.30547165298879</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.685133803491819</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>14.59129691891319</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.66306490751838</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.31762792900535</v>
+        <v>32.86676879452448</v>
       </c>
       <c r="C23">
-        <v>13.33744316046067</v>
+        <v>25.30665930361904</v>
       </c>
       <c r="D23">
-        <v>12.98979042746817</v>
+        <v>4.526258762113308</v>
       </c>
       <c r="E23">
-        <v>7.499051463383398</v>
+        <v>40.63153357178375</v>
       </c>
       <c r="F23">
-        <v>82.06222065707898</v>
+        <v>20.62770404494188</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.678507290212885</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.85058808557604</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.638747413718001</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.2750031472141</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.3114259820371</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.1898894236698</v>
+        <v>30.44561939818353</v>
       </c>
       <c r="C24">
-        <v>12.25875365214663</v>
+        <v>23.47671139790835</v>
       </c>
       <c r="D24">
-        <v>12.26360207059621</v>
+        <v>4.292318216497139</v>
       </c>
       <c r="E24">
-        <v>7.380415726621241</v>
+        <v>37.15283858531195</v>
       </c>
       <c r="F24">
-        <v>76.14315448116973</v>
+        <v>18.88282355520222</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>7.09263091960175</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.09830131217539</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.471944215084966</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.05268785542224</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.16622282607838</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.80836506399303</v>
+        <v>27.62670739100302</v>
       </c>
       <c r="C25">
-        <v>11.06542548646327</v>
+        <v>21.35263195618782</v>
       </c>
       <c r="D25">
-        <v>11.47519197656038</v>
+        <v>4.026319168105911</v>
       </c>
       <c r="E25">
-        <v>7.260574456251398</v>
+        <v>33.21786540331693</v>
       </c>
       <c r="F25">
-        <v>69.59014561077016</v>
+        <v>17.38387218699676</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>7.686942684260324</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.12875363412216</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.309075821910176</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.09515603845951</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.42968146551249</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.36842808081741</v>
+        <v>15.05048780176053</v>
       </c>
       <c r="C2">
-        <v>19.65664177576702</v>
+        <v>11.50101368500164</v>
       </c>
       <c r="D2">
-        <v>3.819341078263467</v>
+        <v>3.627452838550872</v>
       </c>
       <c r="E2">
-        <v>30.1415806845092</v>
+        <v>16.59448567039335</v>
       </c>
       <c r="F2">
-        <v>16.32844048507718</v>
+        <v>19.02170427638955</v>
       </c>
       <c r="I2">
-        <v>8.21366000391739</v>
+        <v>15.77803083377724</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.97460522680993</v>
+        <v>16.8512498480365</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.72218028133327</v>
+        <v>14.20706712963875</v>
       </c>
       <c r="C3">
-        <v>18.4239640285501</v>
+        <v>10.82536328834251</v>
       </c>
       <c r="D3">
-        <v>3.672593532825415</v>
+        <v>3.574240261778049</v>
       </c>
       <c r="E3">
-        <v>27.93574351891154</v>
+        <v>15.64601514548837</v>
       </c>
       <c r="F3">
-        <v>15.64597745715749</v>
+        <v>19.02300677213631</v>
       </c>
       <c r="I3">
-        <v>8.612478628125363</v>
+        <v>15.94719198431599</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.71816738688647</v>
+        <v>16.93076996332746</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.65380423190686</v>
+        <v>13.66225859234334</v>
       </c>
       <c r="C4">
-        <v>17.62588665225236</v>
+        <v>10.38656213626149</v>
       </c>
       <c r="D4">
-        <v>3.579499160473567</v>
+        <v>3.541051168541962</v>
       </c>
       <c r="E4">
-        <v>26.51891907388413</v>
+        <v>15.038347417373</v>
       </c>
       <c r="F4">
-        <v>15.24423381952355</v>
+        <v>19.03334216288247</v>
       </c>
       <c r="I4">
-        <v>8.874641537310564</v>
+        <v>16.05675514797745</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.58523953072986</v>
+        <v>16.98693378145153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.20390660534271</v>
+        <v>13.43362357182914</v>
       </c>
       <c r="C5">
-        <v>17.29030787781309</v>
+        <v>10.20178148734509</v>
       </c>
       <c r="D5">
-        <v>3.540846972788435</v>
+        <v>3.527407687069452</v>
       </c>
       <c r="E5">
-        <v>25.92547915183348</v>
+        <v>14.78462218534459</v>
       </c>
       <c r="F5">
-        <v>15.08504396092518</v>
+        <v>19.03993903451894</v>
       </c>
       <c r="I5">
-        <v>8.985420420042932</v>
+        <v>16.10283464319667</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.53703679180471</v>
+        <v>17.011649856549</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.12832306201501</v>
+        <v>13.39526417595278</v>
       </c>
       <c r="C6">
-        <v>17.23396046889813</v>
+        <v>10.17074045402317</v>
       </c>
       <c r="D6">
-        <v>3.534386769038521</v>
+        <v>3.525135363012186</v>
       </c>
       <c r="E6">
-        <v>25.82595772713947</v>
+        <v>14.7421319904535</v>
       </c>
       <c r="F6">
-        <v>15.0588888864425</v>
+        <v>19.04117806589743</v>
       </c>
       <c r="I6">
-        <v>9.004043220822266</v>
+        <v>16.11057254693057</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.52938653887453</v>
+        <v>17.01586391232873</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.64779562081482</v>
+        <v>13.65920172075717</v>
       </c>
       <c r="C7">
-        <v>17.62140282418608</v>
+        <v>10.38409418832189</v>
       </c>
       <c r="D7">
-        <v>3.57898072817291</v>
+        <v>3.540867633260101</v>
       </c>
       <c r="E7">
-        <v>26.51098128820306</v>
+        <v>15.03494987954568</v>
       </c>
       <c r="F7">
-        <v>15.24206838253332</v>
+        <v>19.03342149243547</v>
       </c>
       <c r="I7">
-        <v>8.876120038075975</v>
+        <v>16.05737079695219</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.58456558603678</v>
+        <v>16.98725972819071</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.81271655364124</v>
+        <v>14.76535150714479</v>
       </c>
       <c r="C8">
-        <v>19.24016388192344</v>
+        <v>11.27304942293409</v>
       </c>
       <c r="D8">
-        <v>3.769383538143668</v>
+        <v>3.609218932299791</v>
       </c>
       <c r="E8">
-        <v>29.39373235565155</v>
+        <v>16.27284911097061</v>
       </c>
       <c r="F8">
-        <v>16.08964379093913</v>
+        <v>19.02016752969193</v>
       </c>
       <c r="I8">
-        <v>8.34731655356949</v>
+        <v>15.83517438231825</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.88098568475872</v>
+        <v>16.87713566352617</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.60437642086448</v>
+        <v>16.71544598605509</v>
       </c>
       <c r="C9">
-        <v>22.08848103562995</v>
+        <v>12.82448042983457</v>
       </c>
       <c r="D9">
-        <v>4.117699764941748</v>
+        <v>3.738683220059439</v>
       </c>
       <c r="E9">
-        <v>34.56982071966006</v>
+        <v>18.60857781505257</v>
       </c>
       <c r="F9">
-        <v>17.88159775875261</v>
+        <v>19.07025629307025</v>
       </c>
       <c r="I9">
-        <v>7.470725312844523</v>
+        <v>15.44470843078692</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.66397080599586</v>
+        <v>16.72011323027554</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.118861071578</v>
+        <v>18.00929717279027</v>
       </c>
       <c r="C10">
-        <v>23.9850595544914</v>
+        <v>13.84578044727016</v>
       </c>
       <c r="D10">
-        <v>4.356911236975112</v>
+        <v>3.830401932369729</v>
       </c>
       <c r="E10">
-        <v>38.11026944356014</v>
+        <v>20.26597166812811</v>
       </c>
       <c r="F10">
-        <v>19.33673560278329</v>
+        <v>19.15378772040472</v>
       </c>
       <c r="I10">
-        <v>6.966493971700966</v>
+        <v>15.18550722359725</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.36966556095143</v>
+        <v>16.64159668072431</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.20530882325553</v>
+        <v>18.56700732572864</v>
       </c>
       <c r="C11">
-        <v>24.80622497516969</v>
+        <v>14.28448812996355</v>
       </c>
       <c r="D11">
-        <v>4.461906843458316</v>
+        <v>3.871267465152992</v>
       </c>
       <c r="E11">
-        <v>39.67114513587598</v>
+        <v>20.97755886320545</v>
       </c>
       <c r="F11">
-        <v>20.13313956232877</v>
+        <v>19.20194077485662</v>
       </c>
       <c r="I11">
-        <v>6.780080233566886</v>
+        <v>15.07362239834789</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.93858750703579</v>
+        <v>16.61406113290711</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.60859850803309</v>
+        <v>18.77371547950815</v>
       </c>
       <c r="C12">
-        <v>25.11129447878968</v>
+        <v>14.44688581814688</v>
       </c>
       <c r="D12">
-        <v>4.501105100011032</v>
+        <v>3.886609214091045</v>
       </c>
       <c r="E12">
-        <v>40.25575233027769</v>
+        <v>21.24096322204026</v>
       </c>
       <c r="F12">
-        <v>20.43380502746916</v>
+        <v>19.22163034460086</v>
       </c>
       <c r="I12">
-        <v>6.71698819706217</v>
+        <v>15.03212393127967</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.16518547576264</v>
+        <v>16.60482444454607</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.52210196782756</v>
+        <v>18.72939723691359</v>
       </c>
       <c r="C13">
-        <v>25.04585250470146</v>
+        <v>14.41207661595647</v>
       </c>
       <c r="D13">
-        <v>4.492688157825421</v>
+        <v>3.883311166422821</v>
       </c>
       <c r="E13">
-        <v>40.13012227721013</v>
+        <v>21.18450327772759</v>
       </c>
       <c r="F13">
-        <v>20.3690902498894</v>
+        <v>19.21732524687685</v>
       </c>
       <c r="I13">
-        <v>6.730219438835623</v>
+        <v>15.04102262547547</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.11639571760482</v>
+        <v>16.6067605752739</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.23864973756596</v>
+        <v>18.5841034277223</v>
       </c>
       <c r="C14">
-        <v>24.83144063581798</v>
+        <v>14.2979235020704</v>
       </c>
       <c r="D14">
-        <v>4.465143008308939</v>
+        <v>3.872532362862923</v>
       </c>
       <c r="E14">
-        <v>39.71936640373213</v>
+        <v>20.99935051864087</v>
       </c>
       <c r="F14">
-        <v>20.15789320706244</v>
+        <v>19.20353152746721</v>
       </c>
       <c r="I14">
-        <v>6.774731018517394</v>
+        <v>15.0701908410748</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.95723552658335</v>
+        <v>16.61327729098467</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.06397312534779</v>
+        <v>18.49452159502535</v>
       </c>
       <c r="C15">
-        <v>24.69934344448685</v>
+        <v>14.22751530486794</v>
       </c>
       <c r="D15">
-        <v>4.44819743908746</v>
+        <v>3.865912412793098</v>
       </c>
       <c r="E15">
-        <v>39.46694677142762</v>
+        <v>20.88515116012722</v>
       </c>
       <c r="F15">
-        <v>20.02841288101449</v>
+        <v>19.19527175751346</v>
       </c>
       <c r="I15">
-        <v>6.803014989716942</v>
+        <v>15.08817060131386</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.85970754252524</v>
+        <v>16.61742439175776</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.04671483225414</v>
+        <v>17.97222416279133</v>
       </c>
       <c r="C16">
-        <v>23.93056504312088</v>
+        <v>13.81658808603135</v>
       </c>
       <c r="D16">
-        <v>4.349971515276239</v>
+        <v>3.82771316521258</v>
       </c>
       <c r="E16">
-        <v>38.00731900398095</v>
+        <v>20.21861813496901</v>
       </c>
       <c r="F16">
-        <v>19.28455536651099</v>
+        <v>19.15084477423367</v>
       </c>
       <c r="I16">
-        <v>6.979649156333748</v>
+        <v>15.19294070623337</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.34735942988158</v>
+        <v>16.64356204246265</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.40804529604071</v>
+        <v>17.64386893414432</v>
       </c>
       <c r="C17">
-        <v>23.44835168756838</v>
+        <v>13.55785937866145</v>
       </c>
       <c r="D17">
-        <v>4.288724382213379</v>
+        <v>3.804052352086922</v>
       </c>
       <c r="E17">
-        <v>37.099616158155</v>
+        <v>19.79889441212995</v>
       </c>
       <c r="F17">
-        <v>18.86157768798241</v>
+        <v>19.12618843560828</v>
       </c>
       <c r="I17">
-        <v>7.099884904373615</v>
+        <v>15.25875962396454</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.15517980586473</v>
+        <v>16.66170240610372</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.03528767895412</v>
+        <v>17.45210401644001</v>
       </c>
       <c r="C18">
-        <v>23.16707333101833</v>
+        <v>13.40660905857839</v>
       </c>
       <c r="D18">
-        <v>4.253137241660188</v>
+        <v>3.790363097650111</v>
       </c>
       <c r="E18">
-        <v>36.57280651848927</v>
+        <v>19.55349035728542</v>
       </c>
       <c r="F18">
-        <v>18.65262112324666</v>
+        <v>19.11296304517519</v>
       </c>
       <c r="I18">
-        <v>7.17299277730334</v>
+        <v>15.29718401207258</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.04741300427686</v>
+        <v>16.67290562093229</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.90814514650155</v>
+        <v>17.3866785885234</v>
       </c>
       <c r="C19">
-        <v>23.07116112139966</v>
+        <v>13.35498019618174</v>
       </c>
       <c r="D19">
-        <v>4.241026740118365</v>
+        <v>3.785714686303463</v>
       </c>
       <c r="E19">
-        <v>36.39360725039573</v>
+        <v>19.4697144103139</v>
       </c>
       <c r="F19">
-        <v>18.58210645715513</v>
+        <v>19.10864949766634</v>
       </c>
       <c r="I19">
-        <v>7.198387760244956</v>
+        <v>15.31029115561299</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.01139838796331</v>
+        <v>16.67683053756916</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.47659196200954</v>
+        <v>17.67912379592172</v>
       </c>
       <c r="C20">
-        <v>23.50008940701647</v>
+        <v>13.58565373029128</v>
       </c>
       <c r="D20">
-        <v>4.295281538780513</v>
+        <v>3.806579456878181</v>
       </c>
       <c r="E20">
-        <v>37.19672681716239</v>
+        <v>19.84398742526866</v>
       </c>
       <c r="F20">
-        <v>18.90036176098988</v>
+        <v>19.12871419968848</v>
       </c>
       <c r="I20">
-        <v>7.086667753671041</v>
+        <v>15.25169437456008</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.17535043213537</v>
+        <v>16.65969160476427</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32212591483506</v>
+        <v>18.62690175775741</v>
       </c>
       <c r="C21">
-        <v>24.89457756921891</v>
+        <v>14.33155435474239</v>
       </c>
       <c r="D21">
-        <v>4.473248991414881</v>
+        <v>3.875702047906167</v>
       </c>
       <c r="E21">
-        <v>39.84018485614851</v>
+        <v>21.05389851854794</v>
       </c>
       <c r="F21">
-        <v>20.21995086435572</v>
+        <v>19.20754364497656</v>
       </c>
       <c r="I21">
-        <v>6.761441811255624</v>
+        <v>15.06159979336352</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.00399238359894</v>
+        <v>16.61133075990861</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.48100437929637</v>
+        <v>19.22017648461896</v>
       </c>
       <c r="C22">
-        <v>25.77169178005646</v>
+        <v>14.79729320260919</v>
       </c>
       <c r="D22">
-        <v>4.586286890941021</v>
+        <v>3.920097397021088</v>
       </c>
       <c r="E22">
-        <v>41.53055470648981</v>
+        <v>21.80934895646643</v>
       </c>
       <c r="F22">
-        <v>21.09348430057691</v>
+        <v>19.26753966070871</v>
       </c>
       <c r="I22">
-        <v>6.593352635393266</v>
+        <v>14.94243410607024</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.66306490751838</v>
+        <v>16.58666862874338</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.86676879452448</v>
+        <v>18.90593976499226</v>
       </c>
       <c r="C23">
-        <v>25.30665930361904</v>
+        <v>14.55071151239328</v>
       </c>
       <c r="D23">
-        <v>4.526258762113308</v>
+        <v>3.896477271721762</v>
       </c>
       <c r="E23">
-        <v>40.63153357178375</v>
+        <v>21.40936914539612</v>
       </c>
       <c r="F23">
-        <v>20.62770404494188</v>
+        <v>19.23474562453683</v>
       </c>
       <c r="I23">
-        <v>6.678507290212885</v>
+        <v>15.00556982922822</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.3114259820371</v>
+        <v>16.59919151526063</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.44561939818353</v>
+        <v>17.66319437979707</v>
       </c>
       <c r="C24">
-        <v>23.47671139790835</v>
+        <v>13.57309570185001</v>
       </c>
       <c r="D24">
-        <v>4.292318216497139</v>
+        <v>3.805437220963207</v>
       </c>
       <c r="E24">
-        <v>37.15283858531195</v>
+        <v>19.82361364538989</v>
       </c>
       <c r="F24">
-        <v>18.88282355520222</v>
+        <v>19.12756934266482</v>
       </c>
       <c r="I24">
-        <v>7.09263091960175</v>
+        <v>15.25488675424893</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.16622282607838</v>
+        <v>16.66059827792072</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.62670739100302</v>
+        <v>16.21197793584842</v>
       </c>
       <c r="C25">
-        <v>21.35263195618782</v>
+        <v>12.42551268275503</v>
       </c>
       <c r="D25">
-        <v>4.026319168105911</v>
+        <v>3.704213794196838</v>
       </c>
       <c r="E25">
-        <v>33.21786540331693</v>
+        <v>17.96042625348758</v>
       </c>
       <c r="F25">
-        <v>17.38387218699676</v>
+        <v>19.048511898994</v>
       </c>
       <c r="I25">
-        <v>7.686942684260324</v>
+        <v>15.54548694947148</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.42968146551249</v>
+        <v>16.75618514696082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.05048780176053</v>
+        <v>25.36842808081739</v>
       </c>
       <c r="C2">
-        <v>11.50101368500164</v>
+        <v>19.65664177576702</v>
       </c>
       <c r="D2">
-        <v>3.627452838550872</v>
+        <v>3.819341078263479</v>
       </c>
       <c r="E2">
-        <v>16.59448567039335</v>
+        <v>30.14158068450914</v>
       </c>
       <c r="F2">
-        <v>19.02170427638955</v>
+        <v>16.32844048507724</v>
       </c>
       <c r="I2">
-        <v>15.77803083377724</v>
+        <v>8.213660003917452</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.8512498480365</v>
+        <v>11.97460522681</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.20706712963875</v>
+        <v>23.72218028133331</v>
       </c>
       <c r="C3">
-        <v>10.82536328834251</v>
+        <v>18.42396402854992</v>
       </c>
       <c r="D3">
-        <v>3.574240261778049</v>
+        <v>3.672593532825443</v>
       </c>
       <c r="E3">
-        <v>15.64601514548837</v>
+        <v>27.93574351891152</v>
       </c>
       <c r="F3">
-        <v>19.02300677213631</v>
+        <v>15.6459774571575</v>
       </c>
       <c r="I3">
-        <v>15.94719198431599</v>
+        <v>8.612478628125213</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.93076996332746</v>
+        <v>11.71816738688644</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.66225859234334</v>
+        <v>22.6538042319069</v>
       </c>
       <c r="C4">
-        <v>10.38656213626149</v>
+        <v>17.62588665225233</v>
       </c>
       <c r="D4">
-        <v>3.541051168541962</v>
+        <v>3.579499160473468</v>
       </c>
       <c r="E4">
-        <v>15.038347417373</v>
+        <v>26.51891907388416</v>
       </c>
       <c r="F4">
-        <v>19.03334216288247</v>
+        <v>15.2442338195236</v>
       </c>
       <c r="I4">
-        <v>16.05675514797745</v>
+        <v>8.874641537310525</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.98693378145153</v>
+        <v>11.58523953072988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.43362357182914</v>
+        <v>22.20390660534275</v>
       </c>
       <c r="C5">
-        <v>10.20178148734509</v>
+        <v>17.29030787781304</v>
       </c>
       <c r="D5">
-        <v>3.527407687069452</v>
+        <v>3.540846972788504</v>
       </c>
       <c r="E5">
-        <v>14.78462218534459</v>
+        <v>25.92547915183355</v>
       </c>
       <c r="F5">
-        <v>19.03993903451894</v>
+        <v>15.08504396092506</v>
       </c>
       <c r="I5">
-        <v>16.10283464319667</v>
+        <v>8.985420420042729</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.011649856549</v>
+        <v>11.5370367918046</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.39526417595278</v>
+        <v>22.12832306201501</v>
       </c>
       <c r="C6">
-        <v>10.17074045402317</v>
+        <v>17.23396046889815</v>
       </c>
       <c r="D6">
-        <v>3.525135363012186</v>
+        <v>3.534386769038485</v>
       </c>
       <c r="E6">
-        <v>14.7421319904535</v>
+        <v>25.82595772713955</v>
       </c>
       <c r="F6">
-        <v>19.04117806589743</v>
+        <v>15.05888888644248</v>
       </c>
       <c r="I6">
-        <v>16.11057254693057</v>
+        <v>9.004043220822254</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.01586391232873</v>
+        <v>11.52938653887453</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.65920172075717</v>
+        <v>22.64779562081477</v>
       </c>
       <c r="C7">
-        <v>10.38409418832189</v>
+        <v>17.621402824186</v>
       </c>
       <c r="D7">
-        <v>3.540867633260101</v>
+        <v>3.578980728172748</v>
       </c>
       <c r="E7">
-        <v>15.03494987954568</v>
+        <v>26.51098128820313</v>
       </c>
       <c r="F7">
-        <v>19.03342149243547</v>
+        <v>15.24206838253349</v>
       </c>
       <c r="I7">
-        <v>16.05737079695219</v>
+        <v>8.876120038076062</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.98725972819071</v>
+        <v>11.58456558603686</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.76535150714479</v>
+        <v>24.81271655364118</v>
       </c>
       <c r="C8">
-        <v>11.27304942293409</v>
+        <v>19.24016388192342</v>
       </c>
       <c r="D8">
-        <v>3.609218932299791</v>
+        <v>3.769383538143801</v>
       </c>
       <c r="E8">
-        <v>16.27284911097061</v>
+        <v>29.39373235565145</v>
       </c>
       <c r="F8">
-        <v>19.02016752969193</v>
+        <v>16.08964379093925</v>
       </c>
       <c r="I8">
-        <v>15.83517438231825</v>
+        <v>8.34731655356968</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.87713566352617</v>
+        <v>11.88098568475887</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.71544598605509</v>
+        <v>28.6043764208645</v>
       </c>
       <c r="C9">
-        <v>12.82448042983457</v>
+        <v>22.08848103563007</v>
       </c>
       <c r="D9">
-        <v>3.738683220059439</v>
+        <v>4.117699764941804</v>
       </c>
       <c r="E9">
-        <v>18.60857781505257</v>
+        <v>34.56982071966004</v>
       </c>
       <c r="F9">
-        <v>19.07025629307025</v>
+        <v>17.88159775875257</v>
       </c>
       <c r="I9">
-        <v>15.44470843078692</v>
+        <v>7.470725312844505</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.72011323027554</v>
+        <v>12.66397080599579</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.00929717279027</v>
+        <v>31.118861071578</v>
       </c>
       <c r="C10">
-        <v>13.84578044727016</v>
+        <v>23.98505955449132</v>
       </c>
       <c r="D10">
-        <v>3.830401932369729</v>
+        <v>4.356911236975122</v>
       </c>
       <c r="E10">
-        <v>20.26597166812811</v>
+        <v>38.11026944356021</v>
       </c>
       <c r="F10">
-        <v>19.15378772040472</v>
+        <v>19.3367356027833</v>
       </c>
       <c r="I10">
-        <v>15.18550722359725</v>
+        <v>6.966493971700903</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.64159668072431</v>
+        <v>13.36966556095141</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.56700732572864</v>
+        <v>32.20530882325558</v>
       </c>
       <c r="C11">
-        <v>14.28448812996355</v>
+        <v>24.80622497516971</v>
       </c>
       <c r="D11">
-        <v>3.871267465152992</v>
+        <v>4.461906843458261</v>
       </c>
       <c r="E11">
-        <v>20.97755886320545</v>
+        <v>39.671145135876</v>
       </c>
       <c r="F11">
-        <v>19.20194077485662</v>
+        <v>20.13313956232886</v>
       </c>
       <c r="I11">
-        <v>15.07362239834789</v>
+        <v>6.780080233566885</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.61406113290711</v>
+        <v>13.93858750703589</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.77371547950815</v>
+        <v>32.60859850803307</v>
       </c>
       <c r="C12">
-        <v>14.44688581814688</v>
+        <v>25.11129447878966</v>
       </c>
       <c r="D12">
-        <v>3.886609214091045</v>
+        <v>4.501105100011024</v>
       </c>
       <c r="E12">
-        <v>21.24096322204026</v>
+        <v>40.25575233027769</v>
       </c>
       <c r="F12">
-        <v>19.22163034460086</v>
+        <v>20.43380502746915</v>
       </c>
       <c r="I12">
-        <v>15.03212393127967</v>
+        <v>6.716988197062223</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.60482444454607</v>
+        <v>14.16518547576263</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.72939723691359</v>
+        <v>32.52210196782757</v>
       </c>
       <c r="C13">
-        <v>14.41207661595647</v>
+        <v>25.0458525047014</v>
       </c>
       <c r="D13">
-        <v>3.883311166422821</v>
+        <v>4.49268815782553</v>
       </c>
       <c r="E13">
-        <v>21.18450327772759</v>
+        <v>40.13012227721009</v>
       </c>
       <c r="F13">
-        <v>19.21732524687685</v>
+        <v>20.36909024988943</v>
       </c>
       <c r="I13">
-        <v>15.04102262547547</v>
+        <v>6.730219438835626</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.6067605752739</v>
+        <v>14.11639571760482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.5841034277223</v>
+        <v>32.23864973756599</v>
       </c>
       <c r="C14">
-        <v>14.2979235020704</v>
+        <v>24.83144063581804</v>
       </c>
       <c r="D14">
-        <v>3.872532362862923</v>
+        <v>4.465143008309023</v>
       </c>
       <c r="E14">
-        <v>20.99935051864087</v>
+        <v>39.71936640373214</v>
       </c>
       <c r="F14">
-        <v>19.20353152746721</v>
+        <v>20.15789320706254</v>
       </c>
       <c r="I14">
-        <v>15.0701908410748</v>
+        <v>6.774731018517303</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.61327729098467</v>
+        <v>13.95723552658344</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.49452159502535</v>
+        <v>32.06397312534779</v>
       </c>
       <c r="C15">
-        <v>14.22751530486794</v>
+        <v>24.69934344448675</v>
       </c>
       <c r="D15">
-        <v>3.865912412793098</v>
+        <v>4.4481974390875</v>
       </c>
       <c r="E15">
-        <v>20.88515116012722</v>
+        <v>39.46694677142765</v>
       </c>
       <c r="F15">
-        <v>19.19527175751346</v>
+        <v>20.02841288101456</v>
       </c>
       <c r="I15">
-        <v>15.08817060131386</v>
+        <v>6.803014989716882</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.61742439175776</v>
+        <v>13.85970754252529</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.97222416279133</v>
+        <v>31.04671483225414</v>
       </c>
       <c r="C16">
-        <v>13.81658808603135</v>
+        <v>23.93056504312099</v>
       </c>
       <c r="D16">
-        <v>3.82771316521258</v>
+        <v>4.349971515276304</v>
       </c>
       <c r="E16">
-        <v>20.21861813496901</v>
+        <v>38.007319003981</v>
       </c>
       <c r="F16">
-        <v>19.15084477423367</v>
+        <v>19.28455536651108</v>
       </c>
       <c r="I16">
-        <v>15.19294070623337</v>
+        <v>6.979649156333842</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.64356204246265</v>
+        <v>13.34735942988163</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.64386893414432</v>
+        <v>30.4080452960407</v>
       </c>
       <c r="C17">
-        <v>13.55785937866145</v>
+        <v>23.44835168756837</v>
       </c>
       <c r="D17">
-        <v>3.804052352086922</v>
+        <v>4.288724382213379</v>
       </c>
       <c r="E17">
-        <v>19.79889441212995</v>
+        <v>37.09961615815497</v>
       </c>
       <c r="F17">
-        <v>19.12618843560828</v>
+        <v>18.86157768798246</v>
       </c>
       <c r="I17">
-        <v>15.25875962396454</v>
+        <v>7.099884904373686</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.66170240610372</v>
+        <v>13.1551798058648</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.45210401644001</v>
+        <v>30.03528767895412</v>
       </c>
       <c r="C18">
-        <v>13.40660905857839</v>
+        <v>23.16707333101838</v>
       </c>
       <c r="D18">
-        <v>3.790363097650111</v>
+        <v>4.253137241660166</v>
       </c>
       <c r="E18">
-        <v>19.55349035728542</v>
+        <v>36.57280651848934</v>
       </c>
       <c r="F18">
-        <v>19.11296304517519</v>
+        <v>18.65262112324669</v>
       </c>
       <c r="I18">
-        <v>15.29718401207258</v>
+        <v>7.172992777303342</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.67290562093229</v>
+        <v>13.04741300427689</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.3866785885234</v>
+        <v>29.9081451465016</v>
       </c>
       <c r="C19">
-        <v>13.35498019618174</v>
+        <v>23.07116112139961</v>
       </c>
       <c r="D19">
-        <v>3.785714686303463</v>
+        <v>4.241026740118365</v>
       </c>
       <c r="E19">
-        <v>19.4697144103139</v>
+        <v>36.39360725039585</v>
       </c>
       <c r="F19">
-        <v>19.10864949766634</v>
+        <v>18.58210645715514</v>
       </c>
       <c r="I19">
-        <v>15.31029115561299</v>
+        <v>7.198387760244911</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.67683053756916</v>
+        <v>13.01139838796331</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.67912379592172</v>
+        <v>30.47659196200951</v>
       </c>
       <c r="C20">
-        <v>13.58565373029128</v>
+        <v>23.50008940701658</v>
       </c>
       <c r="D20">
-        <v>3.806579456878181</v>
+        <v>4.29528153878058</v>
       </c>
       <c r="E20">
-        <v>19.84398742526866</v>
+        <v>37.19672681716235</v>
       </c>
       <c r="F20">
-        <v>19.12871419968848</v>
+        <v>18.9003617609899</v>
       </c>
       <c r="I20">
-        <v>15.25169437456008</v>
+        <v>7.08666775367115</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.65969160476427</v>
+        <v>13.17535043213541</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.62690175775741</v>
+        <v>32.32212591483508</v>
       </c>
       <c r="C21">
-        <v>14.33155435474239</v>
+        <v>24.89457756921896</v>
       </c>
       <c r="D21">
-        <v>3.875702047906167</v>
+        <v>4.473248991414904</v>
       </c>
       <c r="E21">
-        <v>21.05389851854794</v>
+        <v>39.84018485614851</v>
       </c>
       <c r="F21">
-        <v>19.20754364497656</v>
+        <v>20.21995086435571</v>
       </c>
       <c r="I21">
-        <v>15.06159979336352</v>
+        <v>6.761441811255707</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.61133075990861</v>
+        <v>14.00399238359894</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.22017648461896</v>
+        <v>33.48100437929636</v>
       </c>
       <c r="C22">
-        <v>14.79729320260919</v>
+        <v>25.7716917800564</v>
       </c>
       <c r="D22">
-        <v>3.920097397021088</v>
+        <v>4.586286890941029</v>
       </c>
       <c r="E22">
-        <v>21.80934895646643</v>
+        <v>41.53055470648986</v>
       </c>
       <c r="F22">
-        <v>19.26753966070871</v>
+        <v>21.09348430057694</v>
       </c>
       <c r="I22">
-        <v>14.94243410607024</v>
+        <v>6.593352635393441</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.58666862874338</v>
+        <v>14.66306490751836</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.90593976499226</v>
+        <v>32.86676879452438</v>
       </c>
       <c r="C23">
-        <v>14.55071151239328</v>
+        <v>25.30665930361903</v>
       </c>
       <c r="D23">
-        <v>3.896477271721762</v>
+        <v>4.526258762113362</v>
       </c>
       <c r="E23">
-        <v>21.40936914539612</v>
+        <v>40.63153357178377</v>
       </c>
       <c r="F23">
-        <v>19.23474562453683</v>
+        <v>20.62770404494185</v>
       </c>
       <c r="I23">
-        <v>15.00556982922822</v>
+        <v>6.678507290213037</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.59919151526063</v>
+        <v>14.31142598203707</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.66319437979707</v>
+        <v>30.44561939818354</v>
       </c>
       <c r="C24">
-        <v>13.57309570185001</v>
+        <v>23.47671139790829</v>
       </c>
       <c r="D24">
-        <v>3.805437220963207</v>
+        <v>4.292318216497152</v>
       </c>
       <c r="E24">
-        <v>19.82361364538989</v>
+        <v>37.152838585312</v>
       </c>
       <c r="F24">
-        <v>19.12756934266482</v>
+        <v>18.88282355520226</v>
       </c>
       <c r="I24">
-        <v>15.25488675424893</v>
+        <v>7.092630919601822</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.66059827792072</v>
+        <v>13.16622282607845</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.21197793584842</v>
+        <v>27.62670739100296</v>
       </c>
       <c r="C25">
-        <v>12.42551268275503</v>
+        <v>21.35263195618773</v>
       </c>
       <c r="D25">
-        <v>3.704213794196838</v>
+        <v>4.026319168105942</v>
       </c>
       <c r="E25">
-        <v>17.96042625348758</v>
+        <v>33.21786540331698</v>
       </c>
       <c r="F25">
-        <v>19.048511898994</v>
+        <v>17.38387218699687</v>
       </c>
       <c r="I25">
-        <v>15.54548694947148</v>
+        <v>7.686942684260512</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.75618514696082</v>
+        <v>12.42968146551259</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.36842808081739</v>
+        <v>11.94453632328518</v>
       </c>
       <c r="C2">
-        <v>19.65664177576702</v>
+        <v>7.636206626652512</v>
       </c>
       <c r="D2">
-        <v>3.819341078263479</v>
+        <v>6.886042614656529</v>
       </c>
       <c r="E2">
-        <v>30.14158068450914</v>
+        <v>5.675226514833549</v>
       </c>
       <c r="F2">
-        <v>16.32844048507724</v>
+        <v>41.48445128798144</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.035456004834625</v>
       </c>
       <c r="I2">
-        <v>8.213660003917452</v>
+        <v>4.750727052837411</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>31.15046209995307</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.80454000187018</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.254316974145227</v>
       </c>
       <c r="O2">
-        <v>11.97460522681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.463995924835626</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.72218028133331</v>
+        <v>11.21335731174429</v>
       </c>
       <c r="C3">
-        <v>18.42396402854992</v>
+        <v>7.092182359877562</v>
       </c>
       <c r="D3">
-        <v>3.672593532825443</v>
+        <v>6.802198708297877</v>
       </c>
       <c r="E3">
-        <v>27.93574351891152</v>
+        <v>5.438380909370141</v>
       </c>
       <c r="F3">
-        <v>15.6459774571575</v>
+        <v>39.8522775230096</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.294971985583577</v>
       </c>
       <c r="I3">
-        <v>8.612478628125213</v>
+        <v>4.986137917347455</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>30.16276424218769</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.1050016508777</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.029430976126338</v>
       </c>
       <c r="O3">
-        <v>11.71816738688644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.09695184430398</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.6538042319069</v>
+        <v>10.7416424019361</v>
       </c>
       <c r="C4">
-        <v>17.62588665225233</v>
+        <v>6.744178808729942</v>
       </c>
       <c r="D4">
-        <v>3.579499160473468</v>
+        <v>6.747042027554508</v>
       </c>
       <c r="E4">
-        <v>26.51891907388416</v>
+        <v>5.287596589290456</v>
       </c>
       <c r="F4">
-        <v>15.2442338195236</v>
+        <v>38.81199829183625</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.459601143506915</v>
       </c>
       <c r="I4">
-        <v>8.874641537310525</v>
+        <v>5.13596119861139</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>29.53315937544813</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.651826436670227</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.886983183813642</v>
       </c>
       <c r="O4">
-        <v>11.58523953072988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.865146948403927</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.20390660534275</v>
+        <v>10.54253521324018</v>
       </c>
       <c r="C5">
-        <v>17.29030787781304</v>
+        <v>6.604964191031018</v>
       </c>
       <c r="D5">
-        <v>3.540846972788504</v>
+        <v>6.719738814441456</v>
       </c>
       <c r="E5">
-        <v>25.92547915183355</v>
+        <v>5.223138922596786</v>
       </c>
       <c r="F5">
-        <v>15.08504396092506</v>
+        <v>38.34506112051415</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.528654203495591</v>
       </c>
       <c r="I5">
-        <v>8.985420420042729</v>
+        <v>5.200868389218689</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>29.24437887389345</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.462208358336445</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.827997009600502</v>
       </c>
       <c r="O5">
-        <v>11.5370367918046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.769056944499244</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.12832306201501</v>
+        <v>10.50760801381738</v>
       </c>
       <c r="C6">
-        <v>17.23396046889815</v>
+        <v>6.589157571365603</v>
       </c>
       <c r="D6">
-        <v>3.534386769038485</v>
+        <v>6.710390614839394</v>
       </c>
       <c r="E6">
-        <v>25.82595772713955</v>
+        <v>5.210333130872676</v>
       </c>
       <c r="F6">
-        <v>15.05888888644248</v>
+        <v>38.22554801096266</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.540945524866913</v>
       </c>
       <c r="I6">
-        <v>9.004043220822254</v>
+        <v>5.214891290844134</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>29.16352690148635</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.43161303109337</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.818287549760126</v>
       </c>
       <c r="O6">
-        <v>11.52938653887453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.752871560448799</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.64779562081477</v>
+        <v>10.73486423662238</v>
       </c>
       <c r="C7">
-        <v>17.621402824186</v>
+        <v>6.762300136479836</v>
       </c>
       <c r="D7">
-        <v>3.578980728172748</v>
+        <v>6.733748892936794</v>
       </c>
       <c r="E7">
-        <v>26.51098128820313</v>
+        <v>5.281288219950864</v>
       </c>
       <c r="F7">
-        <v>15.24206838253349</v>
+        <v>38.69409700522656</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.462533928110686</v>
       </c>
       <c r="I7">
-        <v>8.876120038076062</v>
+        <v>5.145247844166093</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>29.44127806092006</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.652620757825465</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.886597050439076</v>
       </c>
       <c r="O7">
-        <v>11.58456558603686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.863466065308854</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.81271655364118</v>
+        <v>11.69201364177469</v>
       </c>
       <c r="C8">
-        <v>19.24016388192342</v>
+        <v>7.475602869649512</v>
       </c>
       <c r="D8">
-        <v>3.769383538143801</v>
+        <v>6.841181094873071</v>
       </c>
       <c r="E8">
-        <v>29.39373235565145</v>
+        <v>5.587789328231263</v>
       </c>
       <c r="F8">
-        <v>16.08964379093925</v>
+        <v>40.78913698052062</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.126423919358815</v>
       </c>
       <c r="I8">
-        <v>8.34731655356968</v>
+        <v>4.841555726354374</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>30.70284232803672</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.57225643442316</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.178247154562702</v>
       </c>
       <c r="O8">
-        <v>11.88098568475887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.33830266209965</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.6043764208645</v>
+        <v>13.4634421201357</v>
       </c>
       <c r="C9">
-        <v>22.08848103563007</v>
+        <v>8.734291433463314</v>
       </c>
       <c r="D9">
-        <v>4.117699764941804</v>
+        <v>7.044910623634959</v>
       </c>
       <c r="E9">
-        <v>34.56982071966004</v>
+        <v>6.156083327734316</v>
       </c>
       <c r="F9">
-        <v>17.88159775875257</v>
+        <v>44.76466023941462</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3.504500608845518</v>
       </c>
       <c r="I9">
-        <v>7.470725312844505</v>
+        <v>4.272811400165241</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>33.13253598070391</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.18392803125285</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.713268261303762</v>
       </c>
       <c r="O9">
-        <v>12.66397080599579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.21507062049194</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.118861071578</v>
+        <v>14.67652966712483</v>
       </c>
       <c r="C10">
-        <v>23.98505955449132</v>
+        <v>9.639257085220411</v>
       </c>
       <c r="D10">
-        <v>4.356911236975122</v>
+        <v>7.113502404558929</v>
       </c>
       <c r="E10">
-        <v>38.11026944356021</v>
+        <v>6.452549273763582</v>
       </c>
       <c r="F10">
-        <v>19.3367356027833</v>
+        <v>46.96995806033785</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3.102174921933938</v>
       </c>
       <c r="I10">
-        <v>6.966493971700903</v>
+        <v>3.893909234207619</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>34.38989126539072</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.26889838876252</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.971802035933834</v>
       </c>
       <c r="O10">
-        <v>13.36966556095141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.74786961521554</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.20530882325558</v>
+        <v>15.18919999308898</v>
       </c>
       <c r="C11">
-        <v>24.80622497516971</v>
+        <v>10.37114861202204</v>
       </c>
       <c r="D11">
-        <v>4.461906843458261</v>
+        <v>6.703760984548309</v>
       </c>
       <c r="E11">
-        <v>39.671145135876</v>
+        <v>5.971929247261103</v>
       </c>
       <c r="F11">
-        <v>20.13313956232886</v>
+        <v>43.8887754794152</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.761433867414053</v>
       </c>
       <c r="I11">
-        <v>6.780080233566885</v>
+        <v>3.828217847137166</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>31.74608769734388</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.84209427104468</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.172153758602776</v>
       </c>
       <c r="O11">
-        <v>13.93858750703589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.35222382598702</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.60859850803307</v>
+        <v>15.38460644337345</v>
       </c>
       <c r="C12">
-        <v>25.11129447878966</v>
+        <v>10.78832107461293</v>
       </c>
       <c r="D12">
-        <v>4.501105100011024</v>
+        <v>6.462976324103971</v>
       </c>
       <c r="E12">
-        <v>40.25575233027769</v>
+        <v>5.828707261860119</v>
       </c>
       <c r="F12">
-        <v>20.43380502746915</v>
+        <v>40.95783320276629</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.888940406280589</v>
       </c>
       <c r="I12">
-        <v>6.716988197062223</v>
+        <v>3.828158504214553</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>29.39052854028982</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.10604527974417</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.511583996365492</v>
       </c>
       <c r="O12">
-        <v>14.16518547576263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.902295895138206</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.52210196782757</v>
+        <v>15.34840044931125</v>
       </c>
       <c r="C13">
-        <v>25.0458525047014</v>
+        <v>11.02489988461686</v>
       </c>
       <c r="D13">
-        <v>4.49268815782553</v>
+        <v>6.326529174783882</v>
       </c>
       <c r="E13">
-        <v>40.13012227721009</v>
+        <v>5.941287495687487</v>
       </c>
       <c r="F13">
-        <v>20.36909024988943</v>
+        <v>37.75747507243858</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>6.175763055944482</v>
       </c>
       <c r="I13">
-        <v>6.730219438835626</v>
+        <v>3.89258772787921</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.97047867734491</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.16033573300178</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.937977332977908</v>
       </c>
       <c r="O13">
-        <v>14.11639571760482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.374170761202214</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.23864973756599</v>
+        <v>15.21723495065853</v>
       </c>
       <c r="C14">
-        <v>24.83144063581804</v>
+        <v>11.11873408654718</v>
       </c>
       <c r="D14">
-        <v>4.465143008309023</v>
+        <v>6.29463978061908</v>
       </c>
       <c r="E14">
-        <v>39.71936640373214</v>
+        <v>6.1716374470376</v>
       </c>
       <c r="F14">
-        <v>20.15789320706254</v>
+        <v>35.34743168645134</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7.125235696704143</v>
       </c>
       <c r="I14">
-        <v>6.774731018517303</v>
+        <v>3.968707500552889</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.23314751720052</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.10594850533448</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.609459475843396</v>
       </c>
       <c r="O14">
-        <v>13.95723552658344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.965318753520748</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.06397312534779</v>
+        <v>15.13335292765474</v>
       </c>
       <c r="C15">
-        <v>24.69934344448675</v>
+        <v>11.10934279001424</v>
       </c>
       <c r="D15">
-        <v>4.4481974390875</v>
+        <v>6.294953090217035</v>
       </c>
       <c r="E15">
-        <v>39.46694677142765</v>
+        <v>6.235157680257184</v>
       </c>
       <c r="F15">
-        <v>20.02841288101456</v>
+        <v>34.66522547174198</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7.35320338741172</v>
       </c>
       <c r="I15">
-        <v>6.803014989716882</v>
+        <v>4.005908000909475</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.76766673199319</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.04828860222525</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.539408499283421</v>
       </c>
       <c r="O15">
-        <v>13.85970754252529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.848963940007208</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.04671483225414</v>
+        <v>14.64308815131842</v>
       </c>
       <c r="C16">
-        <v>23.93056504312099</v>
+        <v>10.72684932611784</v>
       </c>
       <c r="D16">
-        <v>4.349971515276304</v>
+        <v>6.284698239226398</v>
       </c>
       <c r="E16">
-        <v>38.007319003981</v>
+        <v>6.075543259188572</v>
       </c>
       <c r="F16">
-        <v>19.28455536651108</v>
+        <v>34.16080651242105</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7.214865280993954</v>
       </c>
       <c r="I16">
-        <v>6.979649156333842</v>
+        <v>4.15925315431343</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.60093463212646</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.60265110205299</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.523662229987531</v>
       </c>
       <c r="O16">
-        <v>13.34735942988163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.709223707105725</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.4080452960407</v>
+        <v>14.33093182338117</v>
       </c>
       <c r="C17">
-        <v>23.44835168756837</v>
+        <v>10.37298246133107</v>
       </c>
       <c r="D17">
-        <v>4.288724382213379</v>
+        <v>6.282768060643791</v>
       </c>
       <c r="E17">
-        <v>37.09961615815497</v>
+        <v>5.794734438309241</v>
       </c>
       <c r="F17">
-        <v>18.86157768798246</v>
+        <v>35.08733983990927</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.585519873218117</v>
       </c>
       <c r="I17">
-        <v>7.099884904373686</v>
+        <v>4.237680005387221</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>25.39912043509426</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.28281336677165</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.671950283281649</v>
       </c>
       <c r="O17">
-        <v>13.1551798058648</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.824702528507101</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.03528767895412</v>
+        <v>14.14831176322652</v>
       </c>
       <c r="C18">
-        <v>23.16707333101838</v>
+        <v>9.995055036218394</v>
       </c>
       <c r="D18">
-        <v>4.253137241660166</v>
+        <v>6.349206774267308</v>
       </c>
       <c r="E18">
-        <v>36.57280651848934</v>
+        <v>5.533710652623466</v>
       </c>
       <c r="F18">
-        <v>18.65262112324669</v>
+        <v>37.44690971233232</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5.518030928982478</v>
       </c>
       <c r="I18">
-        <v>7.172992777303342</v>
+        <v>4.247298211559287</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>27.22274044484597</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.04001786918193</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.059140897286555</v>
       </c>
       <c r="O18">
-        <v>13.04741300427689</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.174523674152059</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.9081451465016</v>
+        <v>14.08054128856211</v>
       </c>
       <c r="C19">
-        <v>23.07116112139961</v>
+        <v>9.665903323029093</v>
       </c>
       <c r="D19">
-        <v>4.241026740118365</v>
+        <v>6.543596148640063</v>
       </c>
       <c r="E19">
-        <v>36.39360725039585</v>
+        <v>5.572310635543204</v>
       </c>
       <c r="F19">
-        <v>18.58210645715514</v>
+        <v>40.61169821588307</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.335574080825465</v>
       </c>
       <c r="I19">
-        <v>7.198387760244911</v>
+        <v>4.211380875658601</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>29.65146176612074</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.88907221260239</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.697985515170836</v>
       </c>
       <c r="O19">
-        <v>13.01139838796331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.684069766665969</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.47659196200951</v>
+        <v>14.35435458407146</v>
       </c>
       <c r="C20">
-        <v>23.50008940701658</v>
+        <v>9.454018180516183</v>
       </c>
       <c r="D20">
-        <v>4.29528153878058</v>
+        <v>7.057812320359304</v>
       </c>
       <c r="E20">
-        <v>37.19672681716235</v>
+        <v>6.356864606029678</v>
       </c>
       <c r="F20">
-        <v>18.9003617609899</v>
+        <v>46.08953859445108</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3.212246973160282</v>
       </c>
       <c r="I20">
-        <v>7.08666775367115</v>
+        <v>4.020267794665172</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>33.81281058575303</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.99977183770423</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.901146016296394</v>
       </c>
       <c r="O20">
-        <v>13.17535043213541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.60571809823043</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32212591483508</v>
+        <v>15.24583054528388</v>
       </c>
       <c r="C21">
-        <v>24.89457756921896</v>
+        <v>10.0598257246812</v>
       </c>
       <c r="D21">
-        <v>4.473248991414904</v>
+        <v>7.201004715064075</v>
       </c>
       <c r="E21">
-        <v>39.84018485614851</v>
+        <v>6.727571899264868</v>
       </c>
       <c r="F21">
-        <v>20.21995086435571</v>
+        <v>48.49284054613982</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.862097041780533</v>
       </c>
       <c r="I21">
-        <v>6.761441811255707</v>
+        <v>3.714835467258616</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>35.35331010145462</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.77768657818985</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.264152945086226</v>
       </c>
       <c r="O21">
-        <v>14.00399238359894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.11530326686701</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.48100437929636</v>
+        <v>15.80851984365357</v>
       </c>
       <c r="C22">
-        <v>25.7716917800564</v>
+        <v>10.44717480596768</v>
       </c>
       <c r="D22">
-        <v>4.586286890941029</v>
+        <v>7.277350182988747</v>
       </c>
       <c r="E22">
-        <v>41.53055470648986</v>
+        <v>6.92289933557481</v>
       </c>
       <c r="F22">
-        <v>21.09348430057694</v>
+        <v>49.8999329193523</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.649536039068741</v>
       </c>
       <c r="I22">
-        <v>6.593352635393441</v>
+        <v>3.512664553367505</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>36.24237020265003</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.26965792464275</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.439075158493737</v>
       </c>
       <c r="O22">
-        <v>14.66306490751836</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.40347054818765</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.86676879452438</v>
+        <v>15.51511627514933</v>
       </c>
       <c r="C23">
-        <v>25.30665930361903</v>
+        <v>10.22525996654823</v>
       </c>
       <c r="D23">
-        <v>4.526258762113362</v>
+        <v>7.250612776450711</v>
       </c>
       <c r="E23">
-        <v>40.63153357178377</v>
+        <v>6.824286058941144</v>
       </c>
       <c r="F23">
-        <v>20.62770404494185</v>
+        <v>49.25863682026806</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.76058549990012</v>
       </c>
       <c r="I23">
-        <v>6.678507290213037</v>
+        <v>3.609107645324711</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>35.8569820193342</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.00620957778933</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.345687734942947</v>
       </c>
       <c r="O23">
-        <v>14.31142598203707</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.25090696708312</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.44561939818354</v>
+        <v>14.34729755210478</v>
       </c>
       <c r="C24">
-        <v>23.47671139790829</v>
+        <v>9.387922094254156</v>
       </c>
       <c r="D24">
-        <v>4.292318216497152</v>
+        <v>7.121525730783664</v>
       </c>
       <c r="E24">
-        <v>37.152838585312</v>
+        <v>6.43485270755252</v>
       </c>
       <c r="F24">
-        <v>18.88282355520226</v>
+        <v>46.58424107198019</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3.191367876233963</v>
       </c>
       <c r="I24">
-        <v>7.092630919601822</v>
+        <v>3.999847975394787</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>34.21351296787839</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.97308263631972</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.983418700196996</v>
       </c>
       <c r="O24">
-        <v>13.16622282607845</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.65652567954116</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.62670739100296</v>
+        <v>12.98087415063837</v>
       </c>
       <c r="C25">
-        <v>21.35263195618773</v>
+        <v>8.434362588728513</v>
       </c>
       <c r="D25">
-        <v>4.026319168105942</v>
+        <v>6.970933744696775</v>
       </c>
       <c r="E25">
-        <v>33.21786540331698</v>
+        <v>5.997889211055888</v>
       </c>
       <c r="F25">
-        <v>17.38387218699687</v>
+        <v>43.5458958492242</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3.67195606085226</v>
       </c>
       <c r="I25">
-        <v>7.686942684260512</v>
+        <v>4.437675388665141</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>32.35243658116075</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.77257316167966</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.573329015979298</v>
       </c>
       <c r="O25">
-        <v>12.42968146551259</v>
+        <v>9.983541228915209</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.94453632328518</v>
+        <v>11.79050539436961</v>
       </c>
       <c r="C2">
-        <v>7.636206626652512</v>
+        <v>8.523520803448628</v>
       </c>
       <c r="D2">
-        <v>6.886042614656529</v>
+        <v>6.07932500299933</v>
       </c>
       <c r="E2">
-        <v>5.675226514833549</v>
+        <v>5.556115761458756</v>
       </c>
       <c r="F2">
-        <v>41.48445128798144</v>
+        <v>34.93791599102833</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.035456004834625</v>
+        <v>3.752766238336753</v>
       </c>
       <c r="I2">
-        <v>4.750727052837411</v>
+        <v>4.408124147434497</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>31.15046209995307</v>
+        <v>25.75761813756185</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>19.78498299089463</v>
       </c>
       <c r="M2">
-        <v>10.80454000187018</v>
+        <v>18.53386904796556</v>
       </c>
       <c r="N2">
-        <v>6.254316974145227</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.463995924835626</v>
+        <v>11.11429523459777</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.527025836425423</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.399344417706541</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.21335731174429</v>
+        <v>11.01915472557429</v>
       </c>
       <c r="C3">
-        <v>7.092182359877562</v>
+        <v>7.882639507385085</v>
       </c>
       <c r="D3">
-        <v>6.802198708297877</v>
+        <v>6.049770405866429</v>
       </c>
       <c r="E3">
-        <v>5.438380909370141</v>
+        <v>5.356269738058112</v>
       </c>
       <c r="F3">
-        <v>39.8522775230096</v>
+        <v>33.92387856283052</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.294971985583577</v>
+        <v>3.986618076352478</v>
       </c>
       <c r="I3">
-        <v>4.986137917347455</v>
+        <v>4.612209831846985</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>30.16276424218769</v>
+        <v>25.27796517863289</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>19.54988253701378</v>
       </c>
       <c r="M3">
-        <v>10.1050016508777</v>
+        <v>18.07191137201408</v>
       </c>
       <c r="N3">
-        <v>6.029430976126338</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.09695184430398</v>
+        <v>10.4030705381583</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.312614845373006</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.029193213957299</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.7416424019361</v>
+        <v>10.51670577560709</v>
       </c>
       <c r="C4">
-        <v>6.744178808729942</v>
+        <v>7.470900675519932</v>
       </c>
       <c r="D4">
-        <v>6.747042027554508</v>
+        <v>6.029528393322233</v>
       </c>
       <c r="E4">
-        <v>5.287596589290456</v>
+        <v>5.229192655152235</v>
       </c>
       <c r="F4">
-        <v>38.81199829183625</v>
+        <v>33.28127803225105</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.459601143506915</v>
+        <v>4.135141698494127</v>
       </c>
       <c r="I4">
-        <v>5.13596119861139</v>
+        <v>4.742499565215653</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>29.53315937544813</v>
+        <v>24.97209344651238</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>19.39146873239802</v>
       </c>
       <c r="M4">
-        <v>9.651826436670227</v>
+        <v>17.79387233663333</v>
       </c>
       <c r="N4">
-        <v>5.886983183813642</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.865146948403927</v>
+        <v>9.942103838385103</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.177211366885355</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.794990082084857</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.54253521324018</v>
+        <v>10.30332023114142</v>
       </c>
       <c r="C5">
-        <v>6.604964191031018</v>
+        <v>7.304035544071999</v>
       </c>
       <c r="D5">
-        <v>6.719738814441456</v>
+        <v>6.019186563747096</v>
       </c>
       <c r="E5">
-        <v>5.223138922596786</v>
+        <v>5.175075462357598</v>
       </c>
       <c r="F5">
-        <v>38.34506112051415</v>
+        <v>32.98820154552074</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.528654203495591</v>
+        <v>4.197449287988099</v>
       </c>
       <c r="I5">
-        <v>5.200868389218689</v>
+        <v>4.799644751448643</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>29.24437887389345</v>
+        <v>24.8248327979515</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>19.30681225808547</v>
       </c>
       <c r="M5">
-        <v>9.462208358336445</v>
+        <v>17.66881468382691</v>
       </c>
       <c r="N5">
-        <v>5.827997009600502</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.769056944499244</v>
+        <v>9.748980327732101</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.121199148939709</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.697824572954858</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.50760801381738</v>
+        <v>10.26579565060456</v>
       </c>
       <c r="C6">
-        <v>6.589157571365603</v>
+        <v>7.282826490880086</v>
       </c>
       <c r="D6">
-        <v>6.710390614839394</v>
+        <v>6.015543494686538</v>
       </c>
       <c r="E6">
-        <v>5.210333130872676</v>
+        <v>5.164531137269138</v>
       </c>
       <c r="F6">
-        <v>38.22554801096266</v>
+        <v>32.90694649358822</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.540945524866913</v>
+        <v>4.208505199062344</v>
       </c>
       <c r="I6">
-        <v>5.214891290844134</v>
+        <v>4.812749247057998</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>29.16352690148635</v>
+        <v>24.77597499869312</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>19.2723299340927</v>
       </c>
       <c r="M6">
-        <v>9.43161303109337</v>
+        <v>17.63174088939886</v>
       </c>
       <c r="N6">
-        <v>5.818287549760126</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.752871560448799</v>
+        <v>9.717562294034289</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.111925839126889</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.681482313793792</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.73486423662238</v>
+        <v>10.5094504747785</v>
       </c>
       <c r="C7">
-        <v>6.762300136479836</v>
+        <v>7.486671669292845</v>
       </c>
       <c r="D7">
-        <v>6.733748892936794</v>
+        <v>6.02434236799014</v>
       </c>
       <c r="E7">
-        <v>5.281288219950864</v>
+        <v>5.224457147606235</v>
       </c>
       <c r="F7">
-        <v>38.69409700522656</v>
+        <v>33.19023025263468</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.462533928110686</v>
+        <v>4.137681464230079</v>
       </c>
       <c r="I7">
-        <v>5.145247844166093</v>
+        <v>4.752653086167097</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>29.44127806092006</v>
+        <v>24.90457542258441</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>19.3361915772903</v>
       </c>
       <c r="M7">
-        <v>9.652620757825465</v>
+        <v>17.74724047625243</v>
       </c>
       <c r="N7">
-        <v>5.886597050439076</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.863466065308854</v>
+        <v>9.942239362983152</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.176687192450701</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.793374364058321</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.69201364177469</v>
+        <v>11.52510543700886</v>
       </c>
       <c r="C8">
-        <v>7.475602869649512</v>
+        <v>8.328018410738771</v>
       </c>
       <c r="D8">
-        <v>6.841181094873071</v>
+        <v>6.063472475609489</v>
       </c>
       <c r="E8">
-        <v>5.587789328231263</v>
+        <v>5.48307051824076</v>
       </c>
       <c r="F8">
-        <v>40.78913698052062</v>
+        <v>34.48238198423599</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.126423919358815</v>
+        <v>3.834539917796348</v>
       </c>
       <c r="I8">
-        <v>4.841555726354374</v>
+        <v>4.489428299204276</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>30.70284232803672</v>
+        <v>25.51093843926992</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>19.63958375442644</v>
       </c>
       <c r="M8">
-        <v>10.57225643442316</v>
+        <v>18.31414083937794</v>
       </c>
       <c r="N8">
-        <v>6.178247154562702</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.33830266209965</v>
+        <v>10.87740493804539</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.454236499723795</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.272787161025423</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.4634421201357</v>
+        <v>13.29656614725732</v>
       </c>
       <c r="C9">
-        <v>8.734291433463314</v>
+        <v>9.806966007310612</v>
       </c>
       <c r="D9">
-        <v>7.044910623634959</v>
+        <v>6.131597576238685</v>
       </c>
       <c r="E9">
-        <v>6.156083327734316</v>
+        <v>5.962887386347079</v>
       </c>
       <c r="F9">
-        <v>44.76466023941462</v>
+        <v>36.99506702029501</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.504500608845518</v>
+        <v>3.275333191999601</v>
       </c>
       <c r="I9">
-        <v>4.272811400165241</v>
+        <v>3.99644582830139</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>33.13253598070391</v>
+        <v>26.71852071368755</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>20.21248139504237</v>
       </c>
       <c r="M9">
-        <v>12.18392803125285</v>
+        <v>19.53977082619771</v>
       </c>
       <c r="N9">
-        <v>6.713268261303762</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.21507062049194</v>
+        <v>12.5149856564332</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.966509881267428</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.15444790544637</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.67652966712483</v>
+        <v>14.46413437026765</v>
       </c>
       <c r="C10">
-        <v>9.639257085220411</v>
+        <v>10.83740018191832</v>
       </c>
       <c r="D10">
-        <v>7.113502404558929</v>
+        <v>6.15487983531042</v>
       </c>
       <c r="E10">
-        <v>6.452549273763582</v>
+        <v>6.218206585882332</v>
       </c>
       <c r="F10">
-        <v>46.96995806033785</v>
+        <v>38.3615845578403</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.102174921933938</v>
+        <v>2.915979641540098</v>
       </c>
       <c r="I10">
-        <v>3.893909234207619</v>
+        <v>3.670444075259708</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>34.38989126539072</v>
+        <v>27.26898951761279</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>20.35715957133955</v>
       </c>
       <c r="M10">
-        <v>13.26889838876252</v>
+        <v>20.23856924531302</v>
       </c>
       <c r="N10">
-        <v>6.971802035933834</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.74786961521554</v>
+        <v>13.61213263802622</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.210393045048658</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.68867902287437</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.18919999308898</v>
+        <v>14.99857002316483</v>
       </c>
       <c r="C11">
-        <v>10.37114861202204</v>
+        <v>11.48970530524293</v>
       </c>
       <c r="D11">
-        <v>6.703760984548309</v>
+        <v>6.093346351325684</v>
       </c>
       <c r="E11">
-        <v>5.971929247261103</v>
+        <v>5.885834514297876</v>
       </c>
       <c r="F11">
-        <v>43.8887754794152</v>
+        <v>36.01853086405552</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.761433867414053</v>
+        <v>3.609723153870913</v>
       </c>
       <c r="I11">
-        <v>3.828217847137166</v>
+        <v>3.609300360970633</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>31.74608769734388</v>
+        <v>25.31363678136393</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>18.76220995406836</v>
       </c>
       <c r="M11">
-        <v>13.84209427104468</v>
+        <v>18.89098107767029</v>
       </c>
       <c r="N11">
-        <v>6.172153758602776</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.35222382598702</v>
+        <v>14.16595435096745</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.400125803498696</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.29568453043146</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.38460644337345</v>
+        <v>15.22070002640858</v>
       </c>
       <c r="C12">
-        <v>10.78832107461293</v>
+        <v>11.8107882662414</v>
       </c>
       <c r="D12">
-        <v>6.462976324103971</v>
+        <v>6.118199414749035</v>
       </c>
       <c r="E12">
-        <v>5.828707261860119</v>
+        <v>5.868715315440428</v>
       </c>
       <c r="F12">
-        <v>40.95783320276629</v>
+        <v>33.85495412255307</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.888940406280589</v>
+        <v>4.767419095755485</v>
       </c>
       <c r="I12">
-        <v>3.828158504214553</v>
+        <v>3.601791928569957</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>29.39052854028982</v>
+        <v>23.66212907051908</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>17.48969596374878</v>
       </c>
       <c r="M12">
-        <v>14.10604527974417</v>
+        <v>17.67555629991983</v>
       </c>
       <c r="N12">
-        <v>5.511583996365492</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.902295895138206</v>
+        <v>14.41027173968412</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.732589369995263</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.847608302291601</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.34840044931125</v>
+        <v>15.21823733414901</v>
       </c>
       <c r="C13">
-        <v>11.02489988461686</v>
+        <v>11.92703387602134</v>
       </c>
       <c r="D13">
-        <v>6.326529174783882</v>
+        <v>6.197286133233083</v>
       </c>
       <c r="E13">
-        <v>5.941287495687487</v>
+        <v>6.081295168546636</v>
       </c>
       <c r="F13">
-        <v>37.75747507243858</v>
+        <v>31.54137979442779</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.175763055944482</v>
+        <v>6.07090282718755</v>
       </c>
       <c r="I13">
-        <v>3.89258772787921</v>
+        <v>3.650990930066599</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>26.97047867734491</v>
+        <v>22.04453584269637</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>16.30094833467268</v>
       </c>
       <c r="M13">
-        <v>14.16033573300178</v>
+        <v>16.41929179676353</v>
       </c>
       <c r="N13">
-        <v>4.937977332977908</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.374170761202214</v>
+        <v>14.44208202089481</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.154372645145182</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.32064847679665</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.21723495065853</v>
+        <v>15.11434186513124</v>
       </c>
       <c r="C14">
-        <v>11.11873408654718</v>
+        <v>11.92236288760081</v>
       </c>
       <c r="D14">
-        <v>6.29463978061908</v>
+        <v>6.283257380766999</v>
       </c>
       <c r="E14">
-        <v>6.1716374470376</v>
+        <v>6.359714451559126</v>
       </c>
       <c r="F14">
-        <v>35.34743168645134</v>
+        <v>29.82049706590175</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.125235696704143</v>
+        <v>7.027194923838127</v>
       </c>
       <c r="I14">
-        <v>3.968707500552889</v>
+        <v>3.713677591555822</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>25.23314751720052</v>
+        <v>20.92281864706198</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>15.49774058459523</v>
       </c>
       <c r="M14">
-        <v>14.10594850533448</v>
+        <v>15.52125329152635</v>
       </c>
       <c r="N14">
-        <v>4.609459475843396</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.965318753520748</v>
+        <v>14.36986907283624</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.823159793781192</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.912087905199586</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.13335292765474</v>
+        <v>15.03894309862391</v>
       </c>
       <c r="C15">
-        <v>11.10934279001424</v>
+        <v>11.88297741052551</v>
       </c>
       <c r="D15">
-        <v>6.294953090217035</v>
+        <v>6.306751007662408</v>
       </c>
       <c r="E15">
-        <v>6.235157680257184</v>
+        <v>6.431841536653216</v>
       </c>
       <c r="F15">
-        <v>34.66522547174198</v>
+        <v>29.34113762947507</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.35320338741172</v>
+        <v>7.255330941682803</v>
       </c>
       <c r="I15">
-        <v>4.005908000909475</v>
+        <v>3.746353657562624</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>24.76766673199319</v>
+        <v>20.63546790953008</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>15.29856476764549</v>
       </c>
       <c r="M15">
-        <v>14.04828860222525</v>
+        <v>15.28203327756182</v>
       </c>
       <c r="N15">
-        <v>4.539408499283421</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.848963940007208</v>
+        <v>14.30709907588716</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.753256960750776</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.795619427249202</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.64308815131842</v>
+        <v>14.56284941955712</v>
       </c>
       <c r="C16">
-        <v>10.72684932611784</v>
+        <v>11.45967527727931</v>
       </c>
       <c r="D16">
-        <v>6.284698239226398</v>
+        <v>6.2648619360933</v>
       </c>
       <c r="E16">
-        <v>6.075543259188572</v>
+        <v>6.270339474918224</v>
       </c>
       <c r="F16">
-        <v>34.16080651242105</v>
+        <v>29.07608825669932</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.214865280993954</v>
+        <v>7.102880780627056</v>
       </c>
       <c r="I16">
-        <v>4.15925315431343</v>
+        <v>3.881411767043673</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>24.60093463212646</v>
+        <v>20.65428280169875</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>15.37601609736388</v>
       </c>
       <c r="M16">
-        <v>13.60265110205299</v>
+        <v>15.21253673967801</v>
       </c>
       <c r="N16">
-        <v>4.523662229987531</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.709223707105725</v>
+        <v>13.85797641034005</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.748080037880121</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.654179687525559</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.33093182338117</v>
+        <v>14.24669108099958</v>
       </c>
       <c r="C17">
-        <v>10.37298246133107</v>
+        <v>11.13016890922342</v>
       </c>
       <c r="D17">
-        <v>6.282768060643791</v>
+        <v>6.183529634664409</v>
       </c>
       <c r="E17">
-        <v>5.794734438309241</v>
+        <v>5.96724703654044</v>
       </c>
       <c r="F17">
-        <v>35.08733983990927</v>
+        <v>29.80869825903885</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.585519873218117</v>
+        <v>6.456429591171877</v>
       </c>
       <c r="I17">
-        <v>4.237680005387221</v>
+        <v>3.952772974325539</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>25.39912043509426</v>
+        <v>21.26206427281603</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>15.87171726766945</v>
       </c>
       <c r="M17">
-        <v>13.28281336677165</v>
+        <v>15.6276596095634</v>
       </c>
       <c r="N17">
-        <v>4.671950283281649</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.824702528507101</v>
+        <v>13.54570239678423</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>4.905626527422223</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.768439642777276</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.14831176322652</v>
+        <v>14.04316845926445</v>
       </c>
       <c r="C18">
-        <v>9.995055036218394</v>
+        <v>10.83637590500358</v>
       </c>
       <c r="D18">
-        <v>6.349206774267308</v>
+        <v>6.091061864246273</v>
       </c>
       <c r="E18">
-        <v>5.533710652623466</v>
+        <v>5.643651226752181</v>
       </c>
       <c r="F18">
-        <v>37.44690971233232</v>
+        <v>31.55478442522081</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.518030928982478</v>
+        <v>5.36456324148341</v>
       </c>
       <c r="I18">
-        <v>4.247298211559287</v>
+        <v>3.963738004794509</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>27.22274044484597</v>
+        <v>22.52689786125729</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.85695300719238</v>
       </c>
       <c r="M18">
-        <v>13.04001786918193</v>
+        <v>16.55439760979486</v>
       </c>
       <c r="N18">
-        <v>5.059140897286555</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.174523674152059</v>
+        <v>13.32094717422653</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.299552066997312</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.117360248214906</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.08054128856211</v>
+        <v>13.94385988858987</v>
       </c>
       <c r="C19">
-        <v>9.665903323029093</v>
+        <v>10.62430515609434</v>
       </c>
       <c r="D19">
-        <v>6.543596148640063</v>
+        <v>6.052590557623724</v>
       </c>
       <c r="E19">
-        <v>5.572310635543204</v>
+        <v>5.566959337447752</v>
       </c>
       <c r="F19">
-        <v>40.61169821588307</v>
+        <v>33.85213254398446</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.335574080825465</v>
+        <v>4.150933992928429</v>
       </c>
       <c r="I19">
-        <v>4.211380875658601</v>
+        <v>3.940127640777503</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>29.65146176612074</v>
+        <v>24.17465073223662</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>18.12460261859865</v>
       </c>
       <c r="M19">
-        <v>12.88907221260239</v>
+        <v>17.7809899065208</v>
       </c>
       <c r="N19">
-        <v>5.697985515170836</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.684069766665969</v>
+        <v>13.19288815384228</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.941272807572819</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.626206527953119</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.35435458407146</v>
+        <v>14.15612478063851</v>
       </c>
       <c r="C20">
-        <v>9.454018180516183</v>
+        <v>10.61517049672607</v>
       </c>
       <c r="D20">
-        <v>7.057812320359304</v>
+        <v>6.137860713249592</v>
       </c>
       <c r="E20">
-        <v>6.356864606029678</v>
+        <v>6.137909077959256</v>
       </c>
       <c r="F20">
-        <v>46.08953859445108</v>
+        <v>37.76269584485549</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.212246973160282</v>
+        <v>3.013639914979669</v>
       </c>
       <c r="I20">
-        <v>4.020267794665172</v>
+        <v>3.786573262850369</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>33.81281058575303</v>
+        <v>26.93674152930171</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>20.17655419170731</v>
       </c>
       <c r="M20">
-        <v>12.99977183770423</v>
+        <v>19.91207311515702</v>
       </c>
       <c r="N20">
-        <v>6.901146016296394</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.60571809823043</v>
+        <v>13.33869740456657</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.143134666767387</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.54655898318602</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.24583054528388</v>
+        <v>15.00590435359953</v>
       </c>
       <c r="C21">
-        <v>10.0598257246812</v>
+        <v>11.33517563843885</v>
       </c>
       <c r="D21">
-        <v>7.201004715064075</v>
+        <v>6.178611222584073</v>
       </c>
       <c r="E21">
-        <v>6.727571899264868</v>
+        <v>6.448925676080261</v>
       </c>
       <c r="F21">
-        <v>48.49284054613982</v>
+        <v>39.34455250976484</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.862097041780533</v>
+        <v>2.699265528546921</v>
       </c>
       <c r="I21">
-        <v>3.714835467258616</v>
+        <v>3.525149616681504</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>35.35331010145462</v>
+        <v>27.76736676241529</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>20.595190964673</v>
       </c>
       <c r="M21">
-        <v>13.77768657818985</v>
+        <v>20.76587061376275</v>
       </c>
       <c r="N21">
-        <v>7.264152945086226</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.11530326686701</v>
+        <v>14.12907627366918</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.496219060395275</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.05602509741775</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.80851984365357</v>
+        <v>15.54345130245222</v>
       </c>
       <c r="C22">
-        <v>10.44717480596768</v>
+        <v>11.78718144216948</v>
       </c>
       <c r="D22">
-        <v>7.277350182988747</v>
+        <v>6.20014835951963</v>
       </c>
       <c r="E22">
-        <v>6.92289933557481</v>
+        <v>6.613909750663689</v>
       </c>
       <c r="F22">
-        <v>49.8999329193523</v>
+        <v>40.27562548142006</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.649536039068741</v>
+        <v>2.509522152745587</v>
       </c>
       <c r="I22">
-        <v>3.512664553367505</v>
+        <v>3.348830426580973</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>36.24237020265003</v>
+        <v>28.24251206004663</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>20.81321424470736</v>
       </c>
       <c r="M22">
-        <v>14.26965792464275</v>
+        <v>21.28042086492786</v>
       </c>
       <c r="N22">
-        <v>7.439075158493737</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.40347054818765</v>
+        <v>14.6273067808706</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.664958221224428</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.34365379560567</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.51511627514933</v>
+        <v>15.26259796429029</v>
       </c>
       <c r="C23">
-        <v>10.22525996654823</v>
+        <v>11.53266484008417</v>
       </c>
       <c r="D23">
-        <v>7.250612776450711</v>
+        <v>6.192735716435013</v>
       </c>
       <c r="E23">
-        <v>6.824286058941144</v>
+        <v>6.529935937515975</v>
       </c>
       <c r="F23">
-        <v>49.25863682026806</v>
+        <v>39.86451743210518</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.76058549990012</v>
+        <v>2.60881025359518</v>
       </c>
       <c r="I23">
-        <v>3.609107645324711</v>
+        <v>3.429949381667125</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>35.8569820193342</v>
+        <v>28.05588444735459</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>20.74743092252729</v>
       </c>
       <c r="M23">
-        <v>14.00620957778933</v>
+        <v>21.05600246553265</v>
       </c>
       <c r="N23">
-        <v>7.345687734942947</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.25090696708312</v>
+        <v>14.36101139864562</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.574951734722377</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.19132307103704</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.34729755210478</v>
+        <v>14.14468310662136</v>
       </c>
       <c r="C24">
-        <v>9.387922094254156</v>
+        <v>10.56182726102813</v>
       </c>
       <c r="D24">
-        <v>7.121525730783664</v>
+        <v>6.155133298045441</v>
       </c>
       <c r="E24">
-        <v>6.43485270755252</v>
+        <v>6.19984122414083</v>
       </c>
       <c r="F24">
-        <v>46.58424107198019</v>
+        <v>38.13478536364443</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.191367876233963</v>
+        <v>2.994268001591114</v>
       </c>
       <c r="I24">
-        <v>3.999847975394787</v>
+        <v>3.765157496062205</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>34.21351296787839</v>
+        <v>27.22491378196496</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>20.39986797166799</v>
       </c>
       <c r="M24">
-        <v>12.97308263631972</v>
+        <v>20.12429809429958</v>
       </c>
       <c r="N24">
-        <v>6.983418700196996</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.65652567954116</v>
+        <v>13.31467453065972</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.226011673081064</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.59703491444695</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.98087415063837</v>
+        <v>12.83474302217989</v>
       </c>
       <c r="C25">
-        <v>8.434362588728513</v>
+        <v>9.448209242761042</v>
       </c>
       <c r="D25">
-        <v>6.970933744696775</v>
+        <v>6.107660833595321</v>
       </c>
       <c r="E25">
-        <v>5.997889211055888</v>
+        <v>5.830194372783095</v>
       </c>
       <c r="F25">
-        <v>43.5458958492242</v>
+        <v>36.19311548245403</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.67195606085226</v>
+        <v>3.425460375956614</v>
       </c>
       <c r="I25">
-        <v>4.437675388665141</v>
+        <v>4.142875702571326</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>32.35243658116075</v>
+        <v>26.29338571639473</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>19.98448317029276</v>
       </c>
       <c r="M25">
-        <v>11.77257316167966</v>
+        <v>19.12617094041735</v>
       </c>
       <c r="N25">
-        <v>6.573329015979298</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>9.983541228915209</v>
+        <v>12.09645975342567</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.832026141004984</v>
       </c>
       <c r="Q25">
+        <v>9.922167552557967</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
